--- a/py/Buda/NUEVA ESTADISTICA.xlsx
+++ b/py/Buda/NUEVA ESTADISTICA.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="238">
   <si>
     <t xml:space="preserve">FECHA</t>
   </si>
@@ -701,6 +702,39 @@
   </si>
   <si>
     <t xml:space="preserve">2018-06-03 21:49:34 [INFO] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H-L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O-L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HL – CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-16 23:42:36 [INFO] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-16 23:58:34 [INFO] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-16 23:58:58 [INFO] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-17 00:07:58 [INFO] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-17 00:08:07 [INFO] </t>
   </si>
 </sst>
 </file>
@@ -815,10 +849,10 @@
   </sheetPr>
   <dimension ref="A1:N219"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="G2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="G174" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
+      <selection pane="bottomLeft" activeCell="F190" activeCellId="0" sqref="F190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10072,7 +10106,7 @@
       <c r="E190" s="1" t="n">
         <v>387521.57</v>
       </c>
-      <c r="F190" s="1" t="n">
+      <c r="F190" s="2" t="n">
         <v>387521.57</v>
       </c>
       <c r="G190" s="1" t="n">
@@ -11535,4 +11569,6713 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:O219"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="G2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="P5" activeCellId="0" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>317000</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>317000</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>317000</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>317000</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>317000</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>317000</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>317100</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>317000</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>317100</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>317000</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <f aca="false">D3-E3</f>
+        <v>100</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <f aca="false">C3-E3</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <f aca="false">F3-E3</f>
+        <v>100</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <f aca="false">K3-M3</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <f aca="false">IF(L3&lt;K3,1,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>317000</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>317100</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>317000</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>317100</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>317100</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <f aca="false">D4-E4</f>
+        <v>100</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <f aca="false">C4-E4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <f aca="false">F4-E4</f>
+        <v>100</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <f aca="false">K4-M4</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <f aca="false">IF(L4&lt;K4,1,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>317000</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>328844.78</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>317000</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>328844.78</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>317100</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <f aca="false">D5-E5</f>
+        <v>11844.78</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <f aca="false">C5-E5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <f aca="false">F5-E5</f>
+        <v>11844.78</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <f aca="false">K5-M5</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <f aca="false">IF(L5&lt;K5,1,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>317000</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>328844.78</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>317000</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>328844.78</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>328844.78</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <f aca="false">D6-E6</f>
+        <v>11844.78</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <f aca="false">C6-E6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <f aca="false">F6-E6</f>
+        <v>11844.78</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <f aca="false">K6-M6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <f aca="false">IF(L6&lt;K6,1,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="n">
+        <f aca="false">D7-E7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <f aca="false">C7-E7</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <f aca="false">F7-E7</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <f aca="false">K7-M7</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="0" t="str">
+        <f aca="false">IF(L7&lt;K7,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="n">
+        <f aca="false">D8-E8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <f aca="false">C8-E8</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <f aca="false">F8-E8</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <f aca="false">K8-M8</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="0" t="str">
+        <f aca="false">IF(L8&lt;K8,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="n">
+        <f aca="false">D9-E9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <f aca="false">C9-E9</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <f aca="false">F9-E9</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <f aca="false">K9-M9</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="0" t="str">
+        <f aca="false">IF(L9&lt;K9,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="n">
+        <f aca="false">D10-E10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <f aca="false">C10-E10</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <f aca="false">F10-E10</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <f aca="false">K10-M10</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="0" t="str">
+        <f aca="false">IF(L10&lt;K10,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="n">
+        <f aca="false">D11-E11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <f aca="false">C11-E11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <f aca="false">F11-E11</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <f aca="false">K11-M11</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="0" t="str">
+        <f aca="false">IF(L11&lt;K11,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="n">
+        <f aca="false">D12-E12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <f aca="false">C12-E12</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <f aca="false">F12-E12</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <f aca="false">K12-M12</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="0" t="str">
+        <f aca="false">IF(L12&lt;K12,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="n">
+        <f aca="false">D13-E13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <f aca="false">C13-E13</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <f aca="false">F13-E13</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <f aca="false">K13-M13</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="0" t="str">
+        <f aca="false">IF(L13&lt;K13,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="n">
+        <f aca="false">D14-E14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <f aca="false">C14-E14</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <f aca="false">F14-E14</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <f aca="false">K14-M14</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="0" t="str">
+        <f aca="false">IF(L14&lt;K14,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="n">
+        <f aca="false">D15-E15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <f aca="false">C15-E15</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <f aca="false">F15-E15</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <f aca="false">K15-M15</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="0" t="str">
+        <f aca="false">IF(L15&lt;K15,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="n">
+        <f aca="false">D16-E16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <f aca="false">C16-E16</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <f aca="false">F16-E16</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <f aca="false">K16-M16</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="0" t="str">
+        <f aca="false">IF(L16&lt;K16,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="n">
+        <f aca="false">D17-E17</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <f aca="false">C17-E17</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <f aca="false">F17-E17</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <f aca="false">K17-M17</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="0" t="str">
+        <f aca="false">IF(L17&lt;K17,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1" t="n">
+        <f aca="false">D18-E18</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <f aca="false">C18-E18</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <f aca="false">F18-E18</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <f aca="false">K18-M18</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="0" t="str">
+        <f aca="false">IF(L18&lt;K18,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1" t="n">
+        <f aca="false">D19-E19</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <f aca="false">C19-E19</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <f aca="false">F19-E19</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <f aca="false">K19-M19</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="0" t="str">
+        <f aca="false">IF(L19&lt;K19,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1" t="n">
+        <f aca="false">D20-E20</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <f aca="false">C20-E20</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <f aca="false">F20-E20</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <f aca="false">K20-M20</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="0" t="str">
+        <f aca="false">IF(L20&lt;K20,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="n">
+        <f aca="false">D21-E21</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <f aca="false">C21-E21</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <f aca="false">F21-E21</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <f aca="false">K21-M21</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="0" t="str">
+        <f aca="false">IF(L21&lt;K21,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1" t="n">
+        <f aca="false">D22-E22</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <f aca="false">C22-E22</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <f aca="false">F22-E22</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <f aca="false">K22-M22</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="0" t="str">
+        <f aca="false">IF(L22&lt;K22,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1" t="n">
+        <f aca="false">D23-E23</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <f aca="false">C23-E23</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <f aca="false">F23-E23</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <f aca="false">K23-M23</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="0" t="str">
+        <f aca="false">IF(L23&lt;K23,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1" t="n">
+        <f aca="false">D24-E24</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <f aca="false">C24-E24</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <f aca="false">F24-E24</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <f aca="false">K24-M24</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="0" t="str">
+        <f aca="false">IF(L24&lt;K24,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1" t="n">
+        <f aca="false">D25-E25</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <f aca="false">C25-E25</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <f aca="false">F25-E25</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <f aca="false">K25-M25</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="0" t="str">
+        <f aca="false">IF(L25&lt;K25,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1" t="n">
+        <f aca="false">D26-E26</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <f aca="false">C26-E26</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <f aca="false">F26-E26</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <f aca="false">K26-M26</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="0" t="str">
+        <f aca="false">IF(L26&lt;K26,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1" t="n">
+        <f aca="false">D27-E27</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <f aca="false">C27-E27</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <f aca="false">F27-E27</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <f aca="false">K27-M27</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="0" t="str">
+        <f aca="false">IF(L27&lt;K27,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1" t="n">
+        <f aca="false">D28-E28</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <f aca="false">C28-E28</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <f aca="false">F28-E28</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <f aca="false">K28-M28</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="0" t="str">
+        <f aca="false">IF(L28&lt;K28,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1" t="n">
+        <f aca="false">D29-E29</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <f aca="false">C29-E29</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <f aca="false">F29-E29</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <f aca="false">K29-M29</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="0" t="str">
+        <f aca="false">IF(L29&lt;K29,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1" t="n">
+        <f aca="false">D30-E30</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <f aca="false">C30-E30</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <f aca="false">F30-E30</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <f aca="false">K30-M30</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="0" t="str">
+        <f aca="false">IF(L30&lt;K30,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1" t="n">
+        <f aca="false">D31-E31</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="n">
+        <f aca="false">C31-E31</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <f aca="false">F31-E31</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <f aca="false">K31-M31</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="0" t="str">
+        <f aca="false">IF(L31&lt;K31,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1" t="n">
+        <f aca="false">D32-E32</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="1" t="n">
+        <f aca="false">C32-E32</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <f aca="false">F32-E32</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <f aca="false">K32-M32</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="0" t="str">
+        <f aca="false">IF(L32&lt;K32,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1" t="n">
+        <f aca="false">D33-E33</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <f aca="false">C33-E33</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <f aca="false">F33-E33</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <f aca="false">K33-M33</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="0" t="str">
+        <f aca="false">IF(L33&lt;K33,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1" t="n">
+        <f aca="false">D34-E34</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="1" t="n">
+        <f aca="false">C34-E34</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <f aca="false">F34-E34</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <f aca="false">K34-M34</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="0" t="str">
+        <f aca="false">IF(L34&lt;K34,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1" t="n">
+        <f aca="false">D35-E35</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="1" t="n">
+        <f aca="false">C35-E35</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="1" t="n">
+        <f aca="false">F35-E35</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <f aca="false">K35-M35</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="0" t="str">
+        <f aca="false">IF(L35&lt;K35,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1" t="n">
+        <f aca="false">D36-E36</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="1" t="n">
+        <f aca="false">C36-E36</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="1" t="n">
+        <f aca="false">F36-E36</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <f aca="false">K36-M36</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="0" t="str">
+        <f aca="false">IF(L36&lt;K36,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1" t="n">
+        <f aca="false">D37-E37</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="1" t="n">
+        <f aca="false">C37-E37</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="1" t="n">
+        <f aca="false">F37-E37</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <f aca="false">K37-M37</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="0" t="str">
+        <f aca="false">IF(L37&lt;K37,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1" t="n">
+        <f aca="false">D38-E38</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="1" t="n">
+        <f aca="false">C38-E38</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="1" t="n">
+        <f aca="false">F38-E38</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <f aca="false">K38-M38</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="0" t="str">
+        <f aca="false">IF(L38&lt;K38,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1" t="n">
+        <f aca="false">D39-E39</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="1" t="n">
+        <f aca="false">C39-E39</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="1" t="n">
+        <f aca="false">F39-E39</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="1" t="n">
+        <f aca="false">K39-M39</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="0" t="str">
+        <f aca="false">IF(L39&lt;K39,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1" t="n">
+        <f aca="false">D40-E40</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="1" t="n">
+        <f aca="false">C40-E40</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="1" t="n">
+        <f aca="false">F40-E40</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="1" t="n">
+        <f aca="false">K40-M40</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="0" t="str">
+        <f aca="false">IF(L40&lt;K40,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1" t="n">
+        <f aca="false">D41-E41</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="1" t="n">
+        <f aca="false">C41-E41</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="1" t="n">
+        <f aca="false">F41-E41</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="1" t="n">
+        <f aca="false">K41-M41</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="0" t="str">
+        <f aca="false">IF(L41&lt;K41,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1" t="n">
+        <f aca="false">D42-E42</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="1" t="n">
+        <f aca="false">C42-E42</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="1" t="n">
+        <f aca="false">F42-E42</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="1" t="n">
+        <f aca="false">K42-M42</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="0" t="str">
+        <f aca="false">IF(L42&lt;K42,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1" t="n">
+        <f aca="false">D43-E43</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="1" t="n">
+        <f aca="false">C43-E43</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="1" t="n">
+        <f aca="false">F43-E43</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="1" t="n">
+        <f aca="false">K43-M43</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="0" t="str">
+        <f aca="false">IF(L43&lt;K43,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1" t="n">
+        <f aca="false">D44-E44</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="1" t="n">
+        <f aca="false">C44-E44</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="1" t="n">
+        <f aca="false">F44-E44</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="1" t="n">
+        <f aca="false">K44-M44</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="0" t="str">
+        <f aca="false">IF(L44&lt;K44,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1" t="n">
+        <f aca="false">D45-E45</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="1" t="n">
+        <f aca="false">C45-E45</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="1" t="n">
+        <f aca="false">F45-E45</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="1" t="n">
+        <f aca="false">K45-M45</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="0" t="str">
+        <f aca="false">IF(L45&lt;K45,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1" t="n">
+        <f aca="false">D46-E46</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="1" t="n">
+        <f aca="false">C46-E46</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="1" t="n">
+        <f aca="false">F46-E46</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="1" t="n">
+        <f aca="false">K46-M46</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="0" t="str">
+        <f aca="false">IF(L46&lt;K46,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1" t="n">
+        <f aca="false">D47-E47</f>
+        <v>0</v>
+      </c>
+      <c r="L47" s="1" t="n">
+        <f aca="false">C47-E47</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="1" t="n">
+        <f aca="false">F47-E47</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="1" t="n">
+        <f aca="false">K47-M47</f>
+        <v>0</v>
+      </c>
+      <c r="O47" s="0" t="str">
+        <f aca="false">IF(L47&lt;K47,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1" t="n">
+        <f aca="false">D48-E48</f>
+        <v>0</v>
+      </c>
+      <c r="L48" s="1" t="n">
+        <f aca="false">C48-E48</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="1" t="n">
+        <f aca="false">F48-E48</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="1" t="n">
+        <f aca="false">K48-M48</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="0" t="str">
+        <f aca="false">IF(L48&lt;K48,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1" t="n">
+        <f aca="false">D49-E49</f>
+        <v>0</v>
+      </c>
+      <c r="L49" s="1" t="n">
+        <f aca="false">C49-E49</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="1" t="n">
+        <f aca="false">F49-E49</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="1" t="n">
+        <f aca="false">K49-M49</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="0" t="str">
+        <f aca="false">IF(L49&lt;K49,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1" t="n">
+        <f aca="false">D50-E50</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="1" t="n">
+        <f aca="false">C50-E50</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="1" t="n">
+        <f aca="false">F50-E50</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="1" t="n">
+        <f aca="false">K50-M50</f>
+        <v>0</v>
+      </c>
+      <c r="O50" s="0" t="str">
+        <f aca="false">IF(L50&lt;K50,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1" t="n">
+        <f aca="false">D51-E51</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="1" t="n">
+        <f aca="false">C51-E51</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="1" t="n">
+        <f aca="false">F51-E51</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="1" t="n">
+        <f aca="false">K51-M51</f>
+        <v>0</v>
+      </c>
+      <c r="O51" s="0" t="str">
+        <f aca="false">IF(L51&lt;K51,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1" t="n">
+        <f aca="false">D52-E52</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="1" t="n">
+        <f aca="false">C52-E52</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="1" t="n">
+        <f aca="false">F52-E52</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="1" t="n">
+        <f aca="false">K52-M52</f>
+        <v>0</v>
+      </c>
+      <c r="O52" s="0" t="str">
+        <f aca="false">IF(L52&lt;K52,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1" t="n">
+        <f aca="false">D53-E53</f>
+        <v>0</v>
+      </c>
+      <c r="L53" s="1" t="n">
+        <f aca="false">C53-E53</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="1" t="n">
+        <f aca="false">F53-E53</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="1" t="n">
+        <f aca="false">K53-M53</f>
+        <v>0</v>
+      </c>
+      <c r="O53" s="0" t="str">
+        <f aca="false">IF(L53&lt;K53,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1" t="n">
+        <f aca="false">D54-E54</f>
+        <v>0</v>
+      </c>
+      <c r="L54" s="1" t="n">
+        <f aca="false">C54-E54</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="1" t="n">
+        <f aca="false">F54-E54</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="1" t="n">
+        <f aca="false">K54-M54</f>
+        <v>0</v>
+      </c>
+      <c r="O54" s="0" t="str">
+        <f aca="false">IF(L54&lt;K54,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1" t="n">
+        <f aca="false">D55-E55</f>
+        <v>0</v>
+      </c>
+      <c r="L55" s="1" t="n">
+        <f aca="false">C55-E55</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="1" t="n">
+        <f aca="false">F55-E55</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="1" t="n">
+        <f aca="false">K55-M55</f>
+        <v>0</v>
+      </c>
+      <c r="O55" s="0" t="str">
+        <f aca="false">IF(L55&lt;K55,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1" t="n">
+        <f aca="false">D56-E56</f>
+        <v>0</v>
+      </c>
+      <c r="L56" s="1" t="n">
+        <f aca="false">C56-E56</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="1" t="n">
+        <f aca="false">F56-E56</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="1" t="n">
+        <f aca="false">K56-M56</f>
+        <v>0</v>
+      </c>
+      <c r="O56" s="0" t="str">
+        <f aca="false">IF(L56&lt;K56,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1" t="n">
+        <f aca="false">D57-E57</f>
+        <v>0</v>
+      </c>
+      <c r="L57" s="1" t="n">
+        <f aca="false">C57-E57</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="1" t="n">
+        <f aca="false">F57-E57</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="1" t="n">
+        <f aca="false">K57-M57</f>
+        <v>0</v>
+      </c>
+      <c r="O57" s="0" t="str">
+        <f aca="false">IF(L57&lt;K57,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1" t="n">
+        <f aca="false">D58-E58</f>
+        <v>0</v>
+      </c>
+      <c r="L58" s="1" t="n">
+        <f aca="false">C58-E58</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="1" t="n">
+        <f aca="false">F58-E58</f>
+        <v>0</v>
+      </c>
+      <c r="N58" s="1" t="n">
+        <f aca="false">K58-M58</f>
+        <v>0</v>
+      </c>
+      <c r="O58" s="0" t="str">
+        <f aca="false">IF(L58&lt;K58,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1" t="n">
+        <f aca="false">D59-E59</f>
+        <v>0</v>
+      </c>
+      <c r="L59" s="1" t="n">
+        <f aca="false">C59-E59</f>
+        <v>0</v>
+      </c>
+      <c r="M59" s="1" t="n">
+        <f aca="false">F59-E59</f>
+        <v>0</v>
+      </c>
+      <c r="N59" s="1" t="n">
+        <f aca="false">K59-M59</f>
+        <v>0</v>
+      </c>
+      <c r="O59" s="0" t="str">
+        <f aca="false">IF(L59&lt;K59,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1" t="n">
+        <f aca="false">D60-E60</f>
+        <v>0</v>
+      </c>
+      <c r="L60" s="1" t="n">
+        <f aca="false">C60-E60</f>
+        <v>0</v>
+      </c>
+      <c r="M60" s="1" t="n">
+        <f aca="false">F60-E60</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="1" t="n">
+        <f aca="false">K60-M60</f>
+        <v>0</v>
+      </c>
+      <c r="O60" s="0" t="str">
+        <f aca="false">IF(L60&lt;K60,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1" t="n">
+        <f aca="false">D61-E61</f>
+        <v>0</v>
+      </c>
+      <c r="L61" s="1" t="n">
+        <f aca="false">C61-E61</f>
+        <v>0</v>
+      </c>
+      <c r="M61" s="1" t="n">
+        <f aca="false">F61-E61</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="1" t="n">
+        <f aca="false">K61-M61</f>
+        <v>0</v>
+      </c>
+      <c r="O61" s="0" t="str">
+        <f aca="false">IF(L61&lt;K61,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1" t="n">
+        <f aca="false">D62-E62</f>
+        <v>0</v>
+      </c>
+      <c r="L62" s="1" t="n">
+        <f aca="false">C62-E62</f>
+        <v>0</v>
+      </c>
+      <c r="M62" s="1" t="n">
+        <f aca="false">F62-E62</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="1" t="n">
+        <f aca="false">K62-M62</f>
+        <v>0</v>
+      </c>
+      <c r="O62" s="0" t="str">
+        <f aca="false">IF(L62&lt;K62,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1" t="n">
+        <f aca="false">D63-E63</f>
+        <v>0</v>
+      </c>
+      <c r="L63" s="1" t="n">
+        <f aca="false">C63-E63</f>
+        <v>0</v>
+      </c>
+      <c r="M63" s="1" t="n">
+        <f aca="false">F63-E63</f>
+        <v>0</v>
+      </c>
+      <c r="N63" s="1" t="n">
+        <f aca="false">K63-M63</f>
+        <v>0</v>
+      </c>
+      <c r="O63" s="0" t="str">
+        <f aca="false">IF(L63&lt;K63,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1" t="n">
+        <f aca="false">D64-E64</f>
+        <v>0</v>
+      </c>
+      <c r="L64" s="1" t="n">
+        <f aca="false">C64-E64</f>
+        <v>0</v>
+      </c>
+      <c r="M64" s="1" t="n">
+        <f aca="false">F64-E64</f>
+        <v>0</v>
+      </c>
+      <c r="N64" s="1" t="n">
+        <f aca="false">K64-M64</f>
+        <v>0</v>
+      </c>
+      <c r="O64" s="0" t="str">
+        <f aca="false">IF(L64&lt;K64,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1" t="n">
+        <f aca="false">D65-E65</f>
+        <v>0</v>
+      </c>
+      <c r="L65" s="1" t="n">
+        <f aca="false">C65-E65</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="1" t="n">
+        <f aca="false">F65-E65</f>
+        <v>0</v>
+      </c>
+      <c r="N65" s="1" t="n">
+        <f aca="false">K65-M65</f>
+        <v>0</v>
+      </c>
+      <c r="O65" s="0" t="str">
+        <f aca="false">IF(L65&lt;K65,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1" t="n">
+        <f aca="false">D66-E66</f>
+        <v>0</v>
+      </c>
+      <c r="L66" s="1" t="n">
+        <f aca="false">C66-E66</f>
+        <v>0</v>
+      </c>
+      <c r="M66" s="1" t="n">
+        <f aca="false">F66-E66</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="1" t="n">
+        <f aca="false">K66-M66</f>
+        <v>0</v>
+      </c>
+      <c r="O66" s="0" t="str">
+        <f aca="false">IF(L66&lt;K66,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1" t="n">
+        <f aca="false">D67-E67</f>
+        <v>0</v>
+      </c>
+      <c r="L67" s="1" t="n">
+        <f aca="false">C67-E67</f>
+        <v>0</v>
+      </c>
+      <c r="M67" s="1" t="n">
+        <f aca="false">F67-E67</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="1" t="n">
+        <f aca="false">K67-M67</f>
+        <v>0</v>
+      </c>
+      <c r="O67" s="0" t="str">
+        <f aca="false">IF(L67&lt;K67,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1" t="n">
+        <f aca="false">D68-E68</f>
+        <v>0</v>
+      </c>
+      <c r="L68" s="1" t="n">
+        <f aca="false">C68-E68</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="1" t="n">
+        <f aca="false">F68-E68</f>
+        <v>0</v>
+      </c>
+      <c r="N68" s="1" t="n">
+        <f aca="false">K68-M68</f>
+        <v>0</v>
+      </c>
+      <c r="O68" s="0" t="str">
+        <f aca="false">IF(L68&lt;K68,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1" t="n">
+        <f aca="false">D69-E69</f>
+        <v>0</v>
+      </c>
+      <c r="L69" s="1" t="n">
+        <f aca="false">C69-E69</f>
+        <v>0</v>
+      </c>
+      <c r="M69" s="1" t="n">
+        <f aca="false">F69-E69</f>
+        <v>0</v>
+      </c>
+      <c r="N69" s="1" t="n">
+        <f aca="false">K69-M69</f>
+        <v>0</v>
+      </c>
+      <c r="O69" s="0" t="str">
+        <f aca="false">IF(L69&lt;K69,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1" t="n">
+        <f aca="false">D70-E70</f>
+        <v>0</v>
+      </c>
+      <c r="L70" s="1" t="n">
+        <f aca="false">C70-E70</f>
+        <v>0</v>
+      </c>
+      <c r="M70" s="1" t="n">
+        <f aca="false">F70-E70</f>
+        <v>0</v>
+      </c>
+      <c r="N70" s="1" t="n">
+        <f aca="false">K70-M70</f>
+        <v>0</v>
+      </c>
+      <c r="O70" s="0" t="str">
+        <f aca="false">IF(L70&lt;K70,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1" t="n">
+        <f aca="false">D71-E71</f>
+        <v>0</v>
+      </c>
+      <c r="L71" s="1" t="n">
+        <f aca="false">C71-E71</f>
+        <v>0</v>
+      </c>
+      <c r="M71" s="1" t="n">
+        <f aca="false">F71-E71</f>
+        <v>0</v>
+      </c>
+      <c r="N71" s="1" t="n">
+        <f aca="false">K71-M71</f>
+        <v>0</v>
+      </c>
+      <c r="O71" s="0" t="str">
+        <f aca="false">IF(L71&lt;K71,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1" t="n">
+        <f aca="false">D72-E72</f>
+        <v>0</v>
+      </c>
+      <c r="L72" s="1" t="n">
+        <f aca="false">C72-E72</f>
+        <v>0</v>
+      </c>
+      <c r="M72" s="1" t="n">
+        <f aca="false">F72-E72</f>
+        <v>0</v>
+      </c>
+      <c r="N72" s="1" t="n">
+        <f aca="false">K72-M72</f>
+        <v>0</v>
+      </c>
+      <c r="O72" s="0" t="str">
+        <f aca="false">IF(L72&lt;K72,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1" t="n">
+        <f aca="false">D73-E73</f>
+        <v>0</v>
+      </c>
+      <c r="L73" s="1" t="n">
+        <f aca="false">C73-E73</f>
+        <v>0</v>
+      </c>
+      <c r="M73" s="1" t="n">
+        <f aca="false">F73-E73</f>
+        <v>0</v>
+      </c>
+      <c r="N73" s="1" t="n">
+        <f aca="false">K73-M73</f>
+        <v>0</v>
+      </c>
+      <c r="O73" s="0" t="str">
+        <f aca="false">IF(L73&lt;K73,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1" t="n">
+        <f aca="false">D74-E74</f>
+        <v>0</v>
+      </c>
+      <c r="L74" s="1" t="n">
+        <f aca="false">C74-E74</f>
+        <v>0</v>
+      </c>
+      <c r="M74" s="1" t="n">
+        <f aca="false">F74-E74</f>
+        <v>0</v>
+      </c>
+      <c r="N74" s="1" t="n">
+        <f aca="false">K74-M74</f>
+        <v>0</v>
+      </c>
+      <c r="O74" s="0" t="str">
+        <f aca="false">IF(L74&lt;K74,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1" t="n">
+        <f aca="false">D75-E75</f>
+        <v>0</v>
+      </c>
+      <c r="L75" s="1" t="n">
+        <f aca="false">C75-E75</f>
+        <v>0</v>
+      </c>
+      <c r="M75" s="1" t="n">
+        <f aca="false">F75-E75</f>
+        <v>0</v>
+      </c>
+      <c r="N75" s="1" t="n">
+        <f aca="false">K75-M75</f>
+        <v>0</v>
+      </c>
+      <c r="O75" s="0" t="str">
+        <f aca="false">IF(L75&lt;K75,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1" t="n">
+        <f aca="false">D76-E76</f>
+        <v>0</v>
+      </c>
+      <c r="L76" s="1" t="n">
+        <f aca="false">C76-E76</f>
+        <v>0</v>
+      </c>
+      <c r="M76" s="1" t="n">
+        <f aca="false">F76-E76</f>
+        <v>0</v>
+      </c>
+      <c r="N76" s="1" t="n">
+        <f aca="false">K76-M76</f>
+        <v>0</v>
+      </c>
+      <c r="O76" s="0" t="str">
+        <f aca="false">IF(L76&lt;K76,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1" t="n">
+        <f aca="false">D77-E77</f>
+        <v>0</v>
+      </c>
+      <c r="L77" s="1" t="n">
+        <f aca="false">C77-E77</f>
+        <v>0</v>
+      </c>
+      <c r="M77" s="1" t="n">
+        <f aca="false">F77-E77</f>
+        <v>0</v>
+      </c>
+      <c r="N77" s="1" t="n">
+        <f aca="false">K77-M77</f>
+        <v>0</v>
+      </c>
+      <c r="O77" s="0" t="str">
+        <f aca="false">IF(L77&lt;K77,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1" t="n">
+        <f aca="false">D78-E78</f>
+        <v>0</v>
+      </c>
+      <c r="L78" s="1" t="n">
+        <f aca="false">C78-E78</f>
+        <v>0</v>
+      </c>
+      <c r="M78" s="1" t="n">
+        <f aca="false">F78-E78</f>
+        <v>0</v>
+      </c>
+      <c r="N78" s="1" t="n">
+        <f aca="false">K78-M78</f>
+        <v>0</v>
+      </c>
+      <c r="O78" s="0" t="str">
+        <f aca="false">IF(L78&lt;K78,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1" t="n">
+        <f aca="false">D79-E79</f>
+        <v>0</v>
+      </c>
+      <c r="L79" s="1" t="n">
+        <f aca="false">C79-E79</f>
+        <v>0</v>
+      </c>
+      <c r="M79" s="1" t="n">
+        <f aca="false">F79-E79</f>
+        <v>0</v>
+      </c>
+      <c r="N79" s="1" t="n">
+        <f aca="false">K79-M79</f>
+        <v>0</v>
+      </c>
+      <c r="O79" s="0" t="str">
+        <f aca="false">IF(L79&lt;K79,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1" t="n">
+        <f aca="false">D80-E80</f>
+        <v>0</v>
+      </c>
+      <c r="L80" s="1" t="n">
+        <f aca="false">C80-E80</f>
+        <v>0</v>
+      </c>
+      <c r="M80" s="1" t="n">
+        <f aca="false">F80-E80</f>
+        <v>0</v>
+      </c>
+      <c r="N80" s="1" t="n">
+        <f aca="false">K80-M80</f>
+        <v>0</v>
+      </c>
+      <c r="O80" s="0" t="str">
+        <f aca="false">IF(L80&lt;K80,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1" t="n">
+        <f aca="false">D81-E81</f>
+        <v>0</v>
+      </c>
+      <c r="L81" s="1" t="n">
+        <f aca="false">C81-E81</f>
+        <v>0</v>
+      </c>
+      <c r="M81" s="1" t="n">
+        <f aca="false">F81-E81</f>
+        <v>0</v>
+      </c>
+      <c r="N81" s="1" t="n">
+        <f aca="false">K81-M81</f>
+        <v>0</v>
+      </c>
+      <c r="O81" s="0" t="str">
+        <f aca="false">IF(L81&lt;K81,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1" t="n">
+        <f aca="false">D82-E82</f>
+        <v>0</v>
+      </c>
+      <c r="L82" s="1" t="n">
+        <f aca="false">C82-E82</f>
+        <v>0</v>
+      </c>
+      <c r="M82" s="1" t="n">
+        <f aca="false">F82-E82</f>
+        <v>0</v>
+      </c>
+      <c r="N82" s="1" t="n">
+        <f aca="false">K82-M82</f>
+        <v>0</v>
+      </c>
+      <c r="O82" s="0" t="str">
+        <f aca="false">IF(L82&lt;K82,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1" t="n">
+        <f aca="false">D83-E83</f>
+        <v>0</v>
+      </c>
+      <c r="L83" s="1" t="n">
+        <f aca="false">C83-E83</f>
+        <v>0</v>
+      </c>
+      <c r="M83" s="1" t="n">
+        <f aca="false">F83-E83</f>
+        <v>0</v>
+      </c>
+      <c r="N83" s="1" t="n">
+        <f aca="false">K83-M83</f>
+        <v>0</v>
+      </c>
+      <c r="O83" s="0" t="str">
+        <f aca="false">IF(L83&lt;K83,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1" t="n">
+        <f aca="false">D84-E84</f>
+        <v>0</v>
+      </c>
+      <c r="L84" s="1" t="n">
+        <f aca="false">C84-E84</f>
+        <v>0</v>
+      </c>
+      <c r="M84" s="1" t="n">
+        <f aca="false">F84-E84</f>
+        <v>0</v>
+      </c>
+      <c r="N84" s="1" t="n">
+        <f aca="false">K84-M84</f>
+        <v>0</v>
+      </c>
+      <c r="O84" s="0" t="str">
+        <f aca="false">IF(L84&lt;K84,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1" t="n">
+        <f aca="false">D85-E85</f>
+        <v>0</v>
+      </c>
+      <c r="L85" s="1" t="n">
+        <f aca="false">C85-E85</f>
+        <v>0</v>
+      </c>
+      <c r="M85" s="1" t="n">
+        <f aca="false">F85-E85</f>
+        <v>0</v>
+      </c>
+      <c r="N85" s="1" t="n">
+        <f aca="false">K85-M85</f>
+        <v>0</v>
+      </c>
+      <c r="O85" s="0" t="str">
+        <f aca="false">IF(L85&lt;K85,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1" t="n">
+        <f aca="false">D86-E86</f>
+        <v>0</v>
+      </c>
+      <c r="L86" s="1" t="n">
+        <f aca="false">C86-E86</f>
+        <v>0</v>
+      </c>
+      <c r="M86" s="1" t="n">
+        <f aca="false">F86-E86</f>
+        <v>0</v>
+      </c>
+      <c r="N86" s="1" t="n">
+        <f aca="false">K86-M86</f>
+        <v>0</v>
+      </c>
+      <c r="O86" s="0" t="str">
+        <f aca="false">IF(L86&lt;K86,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1" t="n">
+        <f aca="false">D87-E87</f>
+        <v>0</v>
+      </c>
+      <c r="L87" s="1" t="n">
+        <f aca="false">C87-E87</f>
+        <v>0</v>
+      </c>
+      <c r="M87" s="1" t="n">
+        <f aca="false">F87-E87</f>
+        <v>0</v>
+      </c>
+      <c r="N87" s="1" t="n">
+        <f aca="false">K87-M87</f>
+        <v>0</v>
+      </c>
+      <c r="O87" s="0" t="str">
+        <f aca="false">IF(L87&lt;K87,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1" t="n">
+        <f aca="false">D88-E88</f>
+        <v>0</v>
+      </c>
+      <c r="L88" s="1" t="n">
+        <f aca="false">C88-E88</f>
+        <v>0</v>
+      </c>
+      <c r="M88" s="1" t="n">
+        <f aca="false">F88-E88</f>
+        <v>0</v>
+      </c>
+      <c r="N88" s="1" t="n">
+        <f aca="false">K88-M88</f>
+        <v>0</v>
+      </c>
+      <c r="O88" s="0" t="str">
+        <f aca="false">IF(L88&lt;K88,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1" t="n">
+        <f aca="false">D89-E89</f>
+        <v>0</v>
+      </c>
+      <c r="L89" s="1" t="n">
+        <f aca="false">C89-E89</f>
+        <v>0</v>
+      </c>
+      <c r="M89" s="1" t="n">
+        <f aca="false">F89-E89</f>
+        <v>0</v>
+      </c>
+      <c r="N89" s="1" t="n">
+        <f aca="false">K89-M89</f>
+        <v>0</v>
+      </c>
+      <c r="O89" s="0" t="str">
+        <f aca="false">IF(L89&lt;K89,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1" t="n">
+        <f aca="false">D90-E90</f>
+        <v>0</v>
+      </c>
+      <c r="L90" s="1" t="n">
+        <f aca="false">C90-E90</f>
+        <v>0</v>
+      </c>
+      <c r="M90" s="1" t="n">
+        <f aca="false">F90-E90</f>
+        <v>0</v>
+      </c>
+      <c r="N90" s="1" t="n">
+        <f aca="false">K90-M90</f>
+        <v>0</v>
+      </c>
+      <c r="O90" s="0" t="str">
+        <f aca="false">IF(L90&lt;K90,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1" t="n">
+        <f aca="false">D91-E91</f>
+        <v>0</v>
+      </c>
+      <c r="L91" s="1" t="n">
+        <f aca="false">C91-E91</f>
+        <v>0</v>
+      </c>
+      <c r="M91" s="1" t="n">
+        <f aca="false">F91-E91</f>
+        <v>0</v>
+      </c>
+      <c r="N91" s="1" t="n">
+        <f aca="false">K91-M91</f>
+        <v>0</v>
+      </c>
+      <c r="O91" s="0" t="str">
+        <f aca="false">IF(L91&lt;K91,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1" t="n">
+        <f aca="false">D92-E92</f>
+        <v>0</v>
+      </c>
+      <c r="L92" s="1" t="n">
+        <f aca="false">C92-E92</f>
+        <v>0</v>
+      </c>
+      <c r="M92" s="1" t="n">
+        <f aca="false">F92-E92</f>
+        <v>0</v>
+      </c>
+      <c r="N92" s="1" t="n">
+        <f aca="false">K92-M92</f>
+        <v>0</v>
+      </c>
+      <c r="O92" s="0" t="str">
+        <f aca="false">IF(L92&lt;K92,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1" t="n">
+        <f aca="false">D93-E93</f>
+        <v>0</v>
+      </c>
+      <c r="L93" s="1" t="n">
+        <f aca="false">C93-E93</f>
+        <v>0</v>
+      </c>
+      <c r="M93" s="1" t="n">
+        <f aca="false">F93-E93</f>
+        <v>0</v>
+      </c>
+      <c r="N93" s="1" t="n">
+        <f aca="false">K93-M93</f>
+        <v>0</v>
+      </c>
+      <c r="O93" s="0" t="str">
+        <f aca="false">IF(L93&lt;K93,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1" t="n">
+        <f aca="false">D94-E94</f>
+        <v>0</v>
+      </c>
+      <c r="L94" s="1" t="n">
+        <f aca="false">C94-E94</f>
+        <v>0</v>
+      </c>
+      <c r="M94" s="1" t="n">
+        <f aca="false">F94-E94</f>
+        <v>0</v>
+      </c>
+      <c r="N94" s="1" t="n">
+        <f aca="false">K94-M94</f>
+        <v>0</v>
+      </c>
+      <c r="O94" s="0" t="str">
+        <f aca="false">IF(L94&lt;K94,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1" t="n">
+        <f aca="false">D95-E95</f>
+        <v>0</v>
+      </c>
+      <c r="L95" s="1" t="n">
+        <f aca="false">C95-E95</f>
+        <v>0</v>
+      </c>
+      <c r="M95" s="1" t="n">
+        <f aca="false">F95-E95</f>
+        <v>0</v>
+      </c>
+      <c r="N95" s="1" t="n">
+        <f aca="false">K95-M95</f>
+        <v>0</v>
+      </c>
+      <c r="O95" s="0" t="str">
+        <f aca="false">IF(L95&lt;K95,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1" t="n">
+        <f aca="false">D96-E96</f>
+        <v>0</v>
+      </c>
+      <c r="L96" s="1" t="n">
+        <f aca="false">C96-E96</f>
+        <v>0</v>
+      </c>
+      <c r="M96" s="1" t="n">
+        <f aca="false">F96-E96</f>
+        <v>0</v>
+      </c>
+      <c r="N96" s="1" t="n">
+        <f aca="false">K96-M96</f>
+        <v>0</v>
+      </c>
+      <c r="O96" s="0" t="str">
+        <f aca="false">IF(L96&lt;K96,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1" t="n">
+        <f aca="false">D97-E97</f>
+        <v>0</v>
+      </c>
+      <c r="L97" s="1" t="n">
+        <f aca="false">C97-E97</f>
+        <v>0</v>
+      </c>
+      <c r="M97" s="1" t="n">
+        <f aca="false">F97-E97</f>
+        <v>0</v>
+      </c>
+      <c r="N97" s="1" t="n">
+        <f aca="false">K97-M97</f>
+        <v>0</v>
+      </c>
+      <c r="O97" s="0" t="str">
+        <f aca="false">IF(L97&lt;K97,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1" t="n">
+        <f aca="false">D98-E98</f>
+        <v>0</v>
+      </c>
+      <c r="L98" s="1" t="n">
+        <f aca="false">C98-E98</f>
+        <v>0</v>
+      </c>
+      <c r="M98" s="1" t="n">
+        <f aca="false">F98-E98</f>
+        <v>0</v>
+      </c>
+      <c r="N98" s="1" t="n">
+        <f aca="false">K98-M98</f>
+        <v>0</v>
+      </c>
+      <c r="O98" s="0" t="str">
+        <f aca="false">IF(L98&lt;K98,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1" t="n">
+        <f aca="false">D99-E99</f>
+        <v>0</v>
+      </c>
+      <c r="L99" s="1" t="n">
+        <f aca="false">C99-E99</f>
+        <v>0</v>
+      </c>
+      <c r="M99" s="1" t="n">
+        <f aca="false">F99-E99</f>
+        <v>0</v>
+      </c>
+      <c r="N99" s="1" t="n">
+        <f aca="false">K99-M99</f>
+        <v>0</v>
+      </c>
+      <c r="O99" s="0" t="str">
+        <f aca="false">IF(L99&lt;K99,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1" t="n">
+        <f aca="false">D100-E100</f>
+        <v>0</v>
+      </c>
+      <c r="L100" s="1" t="n">
+        <f aca="false">C100-E100</f>
+        <v>0</v>
+      </c>
+      <c r="M100" s="1" t="n">
+        <f aca="false">F100-E100</f>
+        <v>0</v>
+      </c>
+      <c r="N100" s="1" t="n">
+        <f aca="false">K100-M100</f>
+        <v>0</v>
+      </c>
+      <c r="O100" s="0" t="str">
+        <f aca="false">IF(L100&lt;K100,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1" t="n">
+        <f aca="false">D101-E101</f>
+        <v>0</v>
+      </c>
+      <c r="L101" s="1" t="n">
+        <f aca="false">C101-E101</f>
+        <v>0</v>
+      </c>
+      <c r="M101" s="1" t="n">
+        <f aca="false">F101-E101</f>
+        <v>0</v>
+      </c>
+      <c r="N101" s="1" t="n">
+        <f aca="false">K101-M101</f>
+        <v>0</v>
+      </c>
+      <c r="O101" s="0" t="str">
+        <f aca="false">IF(L101&lt;K101,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1" t="n">
+        <f aca="false">D102-E102</f>
+        <v>0</v>
+      </c>
+      <c r="L102" s="1" t="n">
+        <f aca="false">C102-E102</f>
+        <v>0</v>
+      </c>
+      <c r="M102" s="1" t="n">
+        <f aca="false">F102-E102</f>
+        <v>0</v>
+      </c>
+      <c r="N102" s="1" t="n">
+        <f aca="false">K102-M102</f>
+        <v>0</v>
+      </c>
+      <c r="O102" s="0" t="str">
+        <f aca="false">IF(L102&lt;K102,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1" t="n">
+        <f aca="false">D103-E103</f>
+        <v>0</v>
+      </c>
+      <c r="L103" s="1" t="n">
+        <f aca="false">C103-E103</f>
+        <v>0</v>
+      </c>
+      <c r="M103" s="1" t="n">
+        <f aca="false">F103-E103</f>
+        <v>0</v>
+      </c>
+      <c r="N103" s="1" t="n">
+        <f aca="false">K103-M103</f>
+        <v>0</v>
+      </c>
+      <c r="O103" s="0" t="str">
+        <f aca="false">IF(L103&lt;K103,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1" t="n">
+        <f aca="false">D104-E104</f>
+        <v>0</v>
+      </c>
+      <c r="L104" s="1" t="n">
+        <f aca="false">C104-E104</f>
+        <v>0</v>
+      </c>
+      <c r="M104" s="1" t="n">
+        <f aca="false">F104-E104</f>
+        <v>0</v>
+      </c>
+      <c r="N104" s="1" t="n">
+        <f aca="false">K104-M104</f>
+        <v>0</v>
+      </c>
+      <c r="O104" s="0" t="str">
+        <f aca="false">IF(L104&lt;K104,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1" t="n">
+        <f aca="false">D105-E105</f>
+        <v>0</v>
+      </c>
+      <c r="L105" s="1" t="n">
+        <f aca="false">C105-E105</f>
+        <v>0</v>
+      </c>
+      <c r="M105" s="1" t="n">
+        <f aca="false">F105-E105</f>
+        <v>0</v>
+      </c>
+      <c r="N105" s="1" t="n">
+        <f aca="false">K105-M105</f>
+        <v>0</v>
+      </c>
+      <c r="O105" s="0" t="str">
+        <f aca="false">IF(L105&lt;K105,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1" t="n">
+        <f aca="false">D106-E106</f>
+        <v>0</v>
+      </c>
+      <c r="L106" s="1" t="n">
+        <f aca="false">C106-E106</f>
+        <v>0</v>
+      </c>
+      <c r="M106" s="1" t="n">
+        <f aca="false">F106-E106</f>
+        <v>0</v>
+      </c>
+      <c r="N106" s="1" t="n">
+        <f aca="false">K106-M106</f>
+        <v>0</v>
+      </c>
+      <c r="O106" s="0" t="str">
+        <f aca="false">IF(L106&lt;K106,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1" t="n">
+        <f aca="false">D107-E107</f>
+        <v>0</v>
+      </c>
+      <c r="L107" s="1" t="n">
+        <f aca="false">C107-E107</f>
+        <v>0</v>
+      </c>
+      <c r="M107" s="1" t="n">
+        <f aca="false">F107-E107</f>
+        <v>0</v>
+      </c>
+      <c r="N107" s="1" t="n">
+        <f aca="false">K107-M107</f>
+        <v>0</v>
+      </c>
+      <c r="O107" s="0" t="str">
+        <f aca="false">IF(L107&lt;K107,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1" t="n">
+        <f aca="false">D108-E108</f>
+        <v>0</v>
+      </c>
+      <c r="L108" s="1" t="n">
+        <f aca="false">C108-E108</f>
+        <v>0</v>
+      </c>
+      <c r="M108" s="1" t="n">
+        <f aca="false">F108-E108</f>
+        <v>0</v>
+      </c>
+      <c r="N108" s="1" t="n">
+        <f aca="false">K108-M108</f>
+        <v>0</v>
+      </c>
+      <c r="O108" s="0" t="str">
+        <f aca="false">IF(L108&lt;K108,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1" t="n">
+        <f aca="false">D109-E109</f>
+        <v>0</v>
+      </c>
+      <c r="L109" s="1" t="n">
+        <f aca="false">C109-E109</f>
+        <v>0</v>
+      </c>
+      <c r="M109" s="1" t="n">
+        <f aca="false">F109-E109</f>
+        <v>0</v>
+      </c>
+      <c r="N109" s="1" t="n">
+        <f aca="false">K109-M109</f>
+        <v>0</v>
+      </c>
+      <c r="O109" s="0" t="str">
+        <f aca="false">IF(L109&lt;K109,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1" t="n">
+        <f aca="false">D110-E110</f>
+        <v>0</v>
+      </c>
+      <c r="L110" s="1" t="n">
+        <f aca="false">C110-E110</f>
+        <v>0</v>
+      </c>
+      <c r="M110" s="1" t="n">
+        <f aca="false">F110-E110</f>
+        <v>0</v>
+      </c>
+      <c r="N110" s="1" t="n">
+        <f aca="false">K110-M110</f>
+        <v>0</v>
+      </c>
+      <c r="O110" s="0" t="str">
+        <f aca="false">IF(L110&lt;K110,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1" t="n">
+        <f aca="false">D111-E111</f>
+        <v>0</v>
+      </c>
+      <c r="L111" s="1" t="n">
+        <f aca="false">C111-E111</f>
+        <v>0</v>
+      </c>
+      <c r="M111" s="1" t="n">
+        <f aca="false">F111-E111</f>
+        <v>0</v>
+      </c>
+      <c r="N111" s="1" t="n">
+        <f aca="false">K111-M111</f>
+        <v>0</v>
+      </c>
+      <c r="O111" s="0" t="str">
+        <f aca="false">IF(L111&lt;K111,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1" t="n">
+        <f aca="false">D112-E112</f>
+        <v>0</v>
+      </c>
+      <c r="L112" s="1" t="n">
+        <f aca="false">C112-E112</f>
+        <v>0</v>
+      </c>
+      <c r="M112" s="1" t="n">
+        <f aca="false">F112-E112</f>
+        <v>0</v>
+      </c>
+      <c r="N112" s="1" t="n">
+        <f aca="false">K112-M112</f>
+        <v>0</v>
+      </c>
+      <c r="O112" s="0" t="str">
+        <f aca="false">IF(L112&lt;K112,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1" t="n">
+        <f aca="false">D113-E113</f>
+        <v>0</v>
+      </c>
+      <c r="L113" s="1" t="n">
+        <f aca="false">C113-E113</f>
+        <v>0</v>
+      </c>
+      <c r="M113" s="1" t="n">
+        <f aca="false">F113-E113</f>
+        <v>0</v>
+      </c>
+      <c r="N113" s="1" t="n">
+        <f aca="false">K113-M113</f>
+        <v>0</v>
+      </c>
+      <c r="O113" s="0" t="str">
+        <f aca="false">IF(L113&lt;K113,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1" t="n">
+        <f aca="false">D114-E114</f>
+        <v>0</v>
+      </c>
+      <c r="L114" s="1" t="n">
+        <f aca="false">C114-E114</f>
+        <v>0</v>
+      </c>
+      <c r="M114" s="1" t="n">
+        <f aca="false">F114-E114</f>
+        <v>0</v>
+      </c>
+      <c r="N114" s="1" t="n">
+        <f aca="false">K114-M114</f>
+        <v>0</v>
+      </c>
+      <c r="O114" s="0" t="str">
+        <f aca="false">IF(L114&lt;K114,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1" t="n">
+        <f aca="false">D115-E115</f>
+        <v>0</v>
+      </c>
+      <c r="L115" s="1" t="n">
+        <f aca="false">C115-E115</f>
+        <v>0</v>
+      </c>
+      <c r="M115" s="1" t="n">
+        <f aca="false">F115-E115</f>
+        <v>0</v>
+      </c>
+      <c r="N115" s="1" t="n">
+        <f aca="false">K115-M115</f>
+        <v>0</v>
+      </c>
+      <c r="O115" s="0" t="str">
+        <f aca="false">IF(L115&lt;K115,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1" t="n">
+        <f aca="false">D116-E116</f>
+        <v>0</v>
+      </c>
+      <c r="L116" s="1" t="n">
+        <f aca="false">C116-E116</f>
+        <v>0</v>
+      </c>
+      <c r="M116" s="1" t="n">
+        <f aca="false">F116-E116</f>
+        <v>0</v>
+      </c>
+      <c r="N116" s="1" t="n">
+        <f aca="false">K116-M116</f>
+        <v>0</v>
+      </c>
+      <c r="O116" s="0" t="str">
+        <f aca="false">IF(L116&lt;K116,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1" t="n">
+        <f aca="false">D117-E117</f>
+        <v>0</v>
+      </c>
+      <c r="L117" s="1" t="n">
+        <f aca="false">C117-E117</f>
+        <v>0</v>
+      </c>
+      <c r="M117" s="1" t="n">
+        <f aca="false">F117-E117</f>
+        <v>0</v>
+      </c>
+      <c r="N117" s="1" t="n">
+        <f aca="false">K117-M117</f>
+        <v>0</v>
+      </c>
+      <c r="O117" s="0" t="str">
+        <f aca="false">IF(L117&lt;K117,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1" t="n">
+        <f aca="false">D118-E118</f>
+        <v>0</v>
+      </c>
+      <c r="L118" s="1" t="n">
+        <f aca="false">C118-E118</f>
+        <v>0</v>
+      </c>
+      <c r="M118" s="1" t="n">
+        <f aca="false">F118-E118</f>
+        <v>0</v>
+      </c>
+      <c r="N118" s="1" t="n">
+        <f aca="false">K118-M118</f>
+        <v>0</v>
+      </c>
+      <c r="O118" s="0" t="str">
+        <f aca="false">IF(L118&lt;K118,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1" t="n">
+        <f aca="false">D119-E119</f>
+        <v>0</v>
+      </c>
+      <c r="L119" s="1" t="n">
+        <f aca="false">C119-E119</f>
+        <v>0</v>
+      </c>
+      <c r="M119" s="1" t="n">
+        <f aca="false">F119-E119</f>
+        <v>0</v>
+      </c>
+      <c r="N119" s="1" t="n">
+        <f aca="false">K119-M119</f>
+        <v>0</v>
+      </c>
+      <c r="O119" s="0" t="str">
+        <f aca="false">IF(L119&lt;K119,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1" t="n">
+        <f aca="false">D120-E120</f>
+        <v>0</v>
+      </c>
+      <c r="L120" s="1" t="n">
+        <f aca="false">C120-E120</f>
+        <v>0</v>
+      </c>
+      <c r="M120" s="1" t="n">
+        <f aca="false">F120-E120</f>
+        <v>0</v>
+      </c>
+      <c r="N120" s="1" t="n">
+        <f aca="false">K120-M120</f>
+        <v>0</v>
+      </c>
+      <c r="O120" s="0" t="str">
+        <f aca="false">IF(L120&lt;K120,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1" t="n">
+        <f aca="false">D121-E121</f>
+        <v>0</v>
+      </c>
+      <c r="L121" s="1" t="n">
+        <f aca="false">C121-E121</f>
+        <v>0</v>
+      </c>
+      <c r="M121" s="1" t="n">
+        <f aca="false">F121-E121</f>
+        <v>0</v>
+      </c>
+      <c r="N121" s="1" t="n">
+        <f aca="false">K121-M121</f>
+        <v>0</v>
+      </c>
+      <c r="O121" s="0" t="str">
+        <f aca="false">IF(L121&lt;K121,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1" t="n">
+        <f aca="false">D122-E122</f>
+        <v>0</v>
+      </c>
+      <c r="L122" s="1" t="n">
+        <f aca="false">C122-E122</f>
+        <v>0</v>
+      </c>
+      <c r="M122" s="1" t="n">
+        <f aca="false">F122-E122</f>
+        <v>0</v>
+      </c>
+      <c r="N122" s="1" t="n">
+        <f aca="false">K122-M122</f>
+        <v>0</v>
+      </c>
+      <c r="O122" s="0" t="str">
+        <f aca="false">IF(L122&lt;K122,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1" t="n">
+        <f aca="false">D123-E123</f>
+        <v>0</v>
+      </c>
+      <c r="L123" s="1" t="n">
+        <f aca="false">C123-E123</f>
+        <v>0</v>
+      </c>
+      <c r="M123" s="1" t="n">
+        <f aca="false">F123-E123</f>
+        <v>0</v>
+      </c>
+      <c r="N123" s="1" t="n">
+        <f aca="false">K123-M123</f>
+        <v>0</v>
+      </c>
+      <c r="O123" s="0" t="str">
+        <f aca="false">IF(L123&lt;K123,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1" t="n">
+        <f aca="false">D124-E124</f>
+        <v>0</v>
+      </c>
+      <c r="L124" s="1" t="n">
+        <f aca="false">C124-E124</f>
+        <v>0</v>
+      </c>
+      <c r="M124" s="1" t="n">
+        <f aca="false">F124-E124</f>
+        <v>0</v>
+      </c>
+      <c r="N124" s="1" t="n">
+        <f aca="false">K124-M124</f>
+        <v>0</v>
+      </c>
+      <c r="O124" s="0" t="str">
+        <f aca="false">IF(L124&lt;K124,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1" t="n">
+        <f aca="false">D125-E125</f>
+        <v>0</v>
+      </c>
+      <c r="L125" s="1" t="n">
+        <f aca="false">C125-E125</f>
+        <v>0</v>
+      </c>
+      <c r="M125" s="1" t="n">
+        <f aca="false">F125-E125</f>
+        <v>0</v>
+      </c>
+      <c r="N125" s="1" t="n">
+        <f aca="false">K125-M125</f>
+        <v>0</v>
+      </c>
+      <c r="O125" s="0" t="str">
+        <f aca="false">IF(L125&lt;K125,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1" t="n">
+        <f aca="false">D126-E126</f>
+        <v>0</v>
+      </c>
+      <c r="L126" s="1" t="n">
+        <f aca="false">C126-E126</f>
+        <v>0</v>
+      </c>
+      <c r="M126" s="1" t="n">
+        <f aca="false">F126-E126</f>
+        <v>0</v>
+      </c>
+      <c r="N126" s="1" t="n">
+        <f aca="false">K126-M126</f>
+        <v>0</v>
+      </c>
+      <c r="O126" s="0" t="str">
+        <f aca="false">IF(L126&lt;K126,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1" t="n">
+        <f aca="false">D127-E127</f>
+        <v>0</v>
+      </c>
+      <c r="L127" s="1" t="n">
+        <f aca="false">C127-E127</f>
+        <v>0</v>
+      </c>
+      <c r="M127" s="1" t="n">
+        <f aca="false">F127-E127</f>
+        <v>0</v>
+      </c>
+      <c r="N127" s="1" t="n">
+        <f aca="false">K127-M127</f>
+        <v>0</v>
+      </c>
+      <c r="O127" s="0" t="str">
+        <f aca="false">IF(L127&lt;K127,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1" t="n">
+        <f aca="false">D128-E128</f>
+        <v>0</v>
+      </c>
+      <c r="L128" s="1" t="n">
+        <f aca="false">C128-E128</f>
+        <v>0</v>
+      </c>
+      <c r="M128" s="1" t="n">
+        <f aca="false">F128-E128</f>
+        <v>0</v>
+      </c>
+      <c r="N128" s="1" t="n">
+        <f aca="false">K128-M128</f>
+        <v>0</v>
+      </c>
+      <c r="O128" s="0" t="str">
+        <f aca="false">IF(L128&lt;K128,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1" t="n">
+        <f aca="false">D129-E129</f>
+        <v>0</v>
+      </c>
+      <c r="L129" s="1" t="n">
+        <f aca="false">C129-E129</f>
+        <v>0</v>
+      </c>
+      <c r="M129" s="1" t="n">
+        <f aca="false">F129-E129</f>
+        <v>0</v>
+      </c>
+      <c r="N129" s="1" t="n">
+        <f aca="false">K129-M129</f>
+        <v>0</v>
+      </c>
+      <c r="O129" s="0" t="str">
+        <f aca="false">IF(L129&lt;K129,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1" t="n">
+        <f aca="false">D130-E130</f>
+        <v>0</v>
+      </c>
+      <c r="L130" s="1" t="n">
+        <f aca="false">C130-E130</f>
+        <v>0</v>
+      </c>
+      <c r="M130" s="1" t="n">
+        <f aca="false">F130-E130</f>
+        <v>0</v>
+      </c>
+      <c r="N130" s="1" t="n">
+        <f aca="false">K130-M130</f>
+        <v>0</v>
+      </c>
+      <c r="O130" s="0" t="str">
+        <f aca="false">IF(L130&lt;K130,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1" t="n">
+        <f aca="false">D131-E131</f>
+        <v>0</v>
+      </c>
+      <c r="L131" s="1" t="n">
+        <f aca="false">C131-E131</f>
+        <v>0</v>
+      </c>
+      <c r="M131" s="1" t="n">
+        <f aca="false">F131-E131</f>
+        <v>0</v>
+      </c>
+      <c r="N131" s="1" t="n">
+        <f aca="false">K131-M131</f>
+        <v>0</v>
+      </c>
+      <c r="O131" s="0" t="str">
+        <f aca="false">IF(L131&lt;K131,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1" t="n">
+        <f aca="false">D132-E132</f>
+        <v>0</v>
+      </c>
+      <c r="L132" s="1" t="n">
+        <f aca="false">C132-E132</f>
+        <v>0</v>
+      </c>
+      <c r="M132" s="1" t="n">
+        <f aca="false">F132-E132</f>
+        <v>0</v>
+      </c>
+      <c r="N132" s="1" t="n">
+        <f aca="false">K132-M132</f>
+        <v>0</v>
+      </c>
+      <c r="O132" s="0" t="str">
+        <f aca="false">IF(L132&lt;K132,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1" t="n">
+        <f aca="false">D133-E133</f>
+        <v>0</v>
+      </c>
+      <c r="L133" s="1" t="n">
+        <f aca="false">C133-E133</f>
+        <v>0</v>
+      </c>
+      <c r="M133" s="1" t="n">
+        <f aca="false">F133-E133</f>
+        <v>0</v>
+      </c>
+      <c r="N133" s="1" t="n">
+        <f aca="false">K133-M133</f>
+        <v>0</v>
+      </c>
+      <c r="O133" s="0" t="str">
+        <f aca="false">IF(L133&lt;K133,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1" t="n">
+        <f aca="false">D134-E134</f>
+        <v>0</v>
+      </c>
+      <c r="L134" s="1" t="n">
+        <f aca="false">C134-E134</f>
+        <v>0</v>
+      </c>
+      <c r="M134" s="1" t="n">
+        <f aca="false">F134-E134</f>
+        <v>0</v>
+      </c>
+      <c r="N134" s="1" t="n">
+        <f aca="false">K134-M134</f>
+        <v>0</v>
+      </c>
+      <c r="O134" s="0" t="str">
+        <f aca="false">IF(L134&lt;K134,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1" t="n">
+        <f aca="false">D135-E135</f>
+        <v>0</v>
+      </c>
+      <c r="L135" s="1" t="n">
+        <f aca="false">C135-E135</f>
+        <v>0</v>
+      </c>
+      <c r="M135" s="1" t="n">
+        <f aca="false">F135-E135</f>
+        <v>0</v>
+      </c>
+      <c r="N135" s="1" t="n">
+        <f aca="false">K135-M135</f>
+        <v>0</v>
+      </c>
+      <c r="O135" s="0" t="str">
+        <f aca="false">IF(L135&lt;K135,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1" t="n">
+        <f aca="false">D136-E136</f>
+        <v>0</v>
+      </c>
+      <c r="L136" s="1" t="n">
+        <f aca="false">C136-E136</f>
+        <v>0</v>
+      </c>
+      <c r="M136" s="1" t="n">
+        <f aca="false">F136-E136</f>
+        <v>0</v>
+      </c>
+      <c r="N136" s="1" t="n">
+        <f aca="false">K136-M136</f>
+        <v>0</v>
+      </c>
+      <c r="O136" s="0" t="str">
+        <f aca="false">IF(L136&lt;K136,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1" t="n">
+        <f aca="false">D137-E137</f>
+        <v>0</v>
+      </c>
+      <c r="L137" s="1" t="n">
+        <f aca="false">C137-E137</f>
+        <v>0</v>
+      </c>
+      <c r="M137" s="1" t="n">
+        <f aca="false">F137-E137</f>
+        <v>0</v>
+      </c>
+      <c r="N137" s="1" t="n">
+        <f aca="false">K137-M137</f>
+        <v>0</v>
+      </c>
+      <c r="O137" s="0" t="str">
+        <f aca="false">IF(L137&lt;K137,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1" t="n">
+        <f aca="false">D138-E138</f>
+        <v>0</v>
+      </c>
+      <c r="L138" s="1" t="n">
+        <f aca="false">C138-E138</f>
+        <v>0</v>
+      </c>
+      <c r="M138" s="1" t="n">
+        <f aca="false">F138-E138</f>
+        <v>0</v>
+      </c>
+      <c r="N138" s="1" t="n">
+        <f aca="false">K138-M138</f>
+        <v>0</v>
+      </c>
+      <c r="O138" s="0" t="str">
+        <f aca="false">IF(L138&lt;K138,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1" t="n">
+        <f aca="false">D139-E139</f>
+        <v>0</v>
+      </c>
+      <c r="L139" s="1" t="n">
+        <f aca="false">C139-E139</f>
+        <v>0</v>
+      </c>
+      <c r="M139" s="1" t="n">
+        <f aca="false">F139-E139</f>
+        <v>0</v>
+      </c>
+      <c r="N139" s="1" t="n">
+        <f aca="false">K139-M139</f>
+        <v>0</v>
+      </c>
+      <c r="O139" s="0" t="str">
+        <f aca="false">IF(L139&lt;K139,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1" t="n">
+        <f aca="false">D140-E140</f>
+        <v>0</v>
+      </c>
+      <c r="L140" s="1" t="n">
+        <f aca="false">C140-E140</f>
+        <v>0</v>
+      </c>
+      <c r="M140" s="1" t="n">
+        <f aca="false">F140-E140</f>
+        <v>0</v>
+      </c>
+      <c r="N140" s="1" t="n">
+        <f aca="false">K140-M140</f>
+        <v>0</v>
+      </c>
+      <c r="O140" s="0" t="str">
+        <f aca="false">IF(L140&lt;K140,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1" t="n">
+        <f aca="false">D141-E141</f>
+        <v>0</v>
+      </c>
+      <c r="L141" s="1" t="n">
+        <f aca="false">C141-E141</f>
+        <v>0</v>
+      </c>
+      <c r="M141" s="1" t="n">
+        <f aca="false">F141-E141</f>
+        <v>0</v>
+      </c>
+      <c r="N141" s="1" t="n">
+        <f aca="false">K141-M141</f>
+        <v>0</v>
+      </c>
+      <c r="O141" s="0" t="str">
+        <f aca="false">IF(L141&lt;K141,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1" t="n">
+        <f aca="false">D142-E142</f>
+        <v>0</v>
+      </c>
+      <c r="L142" s="1" t="n">
+        <f aca="false">C142-E142</f>
+        <v>0</v>
+      </c>
+      <c r="M142" s="1" t="n">
+        <f aca="false">F142-E142</f>
+        <v>0</v>
+      </c>
+      <c r="N142" s="1" t="n">
+        <f aca="false">K142-M142</f>
+        <v>0</v>
+      </c>
+      <c r="O142" s="0" t="str">
+        <f aca="false">IF(L142&lt;K142,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1" t="n">
+        <f aca="false">D143-E143</f>
+        <v>0</v>
+      </c>
+      <c r="L143" s="1" t="n">
+        <f aca="false">C143-E143</f>
+        <v>0</v>
+      </c>
+      <c r="M143" s="1" t="n">
+        <f aca="false">F143-E143</f>
+        <v>0</v>
+      </c>
+      <c r="N143" s="1" t="n">
+        <f aca="false">K143-M143</f>
+        <v>0</v>
+      </c>
+      <c r="O143" s="0" t="str">
+        <f aca="false">IF(L143&lt;K143,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1" t="n">
+        <f aca="false">D144-E144</f>
+        <v>0</v>
+      </c>
+      <c r="L144" s="1" t="n">
+        <f aca="false">C144-E144</f>
+        <v>0</v>
+      </c>
+      <c r="M144" s="1" t="n">
+        <f aca="false">F144-E144</f>
+        <v>0</v>
+      </c>
+      <c r="N144" s="1" t="n">
+        <f aca="false">K144-M144</f>
+        <v>0</v>
+      </c>
+      <c r="O144" s="0" t="str">
+        <f aca="false">IF(L144&lt;K144,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1" t="n">
+        <f aca="false">D145-E145</f>
+        <v>0</v>
+      </c>
+      <c r="L145" s="1" t="n">
+        <f aca="false">C145-E145</f>
+        <v>0</v>
+      </c>
+      <c r="M145" s="1" t="n">
+        <f aca="false">F145-E145</f>
+        <v>0</v>
+      </c>
+      <c r="N145" s="1" t="n">
+        <f aca="false">K145-M145</f>
+        <v>0</v>
+      </c>
+      <c r="O145" s="0" t="str">
+        <f aca="false">IF(L145&lt;K145,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1" t="n">
+        <f aca="false">D146-E146</f>
+        <v>0</v>
+      </c>
+      <c r="L146" s="1" t="n">
+        <f aca="false">C146-E146</f>
+        <v>0</v>
+      </c>
+      <c r="M146" s="1" t="n">
+        <f aca="false">F146-E146</f>
+        <v>0</v>
+      </c>
+      <c r="N146" s="1" t="n">
+        <f aca="false">K146-M146</f>
+        <v>0</v>
+      </c>
+      <c r="O146" s="0" t="str">
+        <f aca="false">IF(L146&lt;K146,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1" t="n">
+        <f aca="false">D147-E147</f>
+        <v>0</v>
+      </c>
+      <c r="L147" s="1" t="n">
+        <f aca="false">C147-E147</f>
+        <v>0</v>
+      </c>
+      <c r="M147" s="1" t="n">
+        <f aca="false">F147-E147</f>
+        <v>0</v>
+      </c>
+      <c r="N147" s="1" t="n">
+        <f aca="false">K147-M147</f>
+        <v>0</v>
+      </c>
+      <c r="O147" s="0" t="str">
+        <f aca="false">IF(L147&lt;K147,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1" t="n">
+        <f aca="false">D148-E148</f>
+        <v>0</v>
+      </c>
+      <c r="L148" s="1" t="n">
+        <f aca="false">C148-E148</f>
+        <v>0</v>
+      </c>
+      <c r="M148" s="1" t="n">
+        <f aca="false">F148-E148</f>
+        <v>0</v>
+      </c>
+      <c r="N148" s="1" t="n">
+        <f aca="false">K148-M148</f>
+        <v>0</v>
+      </c>
+      <c r="O148" s="0" t="str">
+        <f aca="false">IF(L148&lt;K148,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1" t="n">
+        <f aca="false">D149-E149</f>
+        <v>0</v>
+      </c>
+      <c r="L149" s="1" t="n">
+        <f aca="false">C149-E149</f>
+        <v>0</v>
+      </c>
+      <c r="M149" s="1" t="n">
+        <f aca="false">F149-E149</f>
+        <v>0</v>
+      </c>
+      <c r="N149" s="1" t="n">
+        <f aca="false">K149-M149</f>
+        <v>0</v>
+      </c>
+      <c r="O149" s="0" t="str">
+        <f aca="false">IF(L149&lt;K149,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1" t="n">
+        <f aca="false">D150-E150</f>
+        <v>0</v>
+      </c>
+      <c r="L150" s="1" t="n">
+        <f aca="false">C150-E150</f>
+        <v>0</v>
+      </c>
+      <c r="M150" s="1" t="n">
+        <f aca="false">F150-E150</f>
+        <v>0</v>
+      </c>
+      <c r="N150" s="1" t="n">
+        <f aca="false">K150-M150</f>
+        <v>0</v>
+      </c>
+      <c r="O150" s="0" t="str">
+        <f aca="false">IF(L150&lt;K150,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1" t="n">
+        <f aca="false">D151-E151</f>
+        <v>0</v>
+      </c>
+      <c r="L151" s="1" t="n">
+        <f aca="false">C151-E151</f>
+        <v>0</v>
+      </c>
+      <c r="M151" s="1" t="n">
+        <f aca="false">F151-E151</f>
+        <v>0</v>
+      </c>
+      <c r="N151" s="1" t="n">
+        <f aca="false">K151-M151</f>
+        <v>0</v>
+      </c>
+      <c r="O151" s="0" t="str">
+        <f aca="false">IF(L151&lt;K151,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1" t="n">
+        <f aca="false">D152-E152</f>
+        <v>0</v>
+      </c>
+      <c r="L152" s="1" t="n">
+        <f aca="false">C152-E152</f>
+        <v>0</v>
+      </c>
+      <c r="M152" s="1" t="n">
+        <f aca="false">F152-E152</f>
+        <v>0</v>
+      </c>
+      <c r="N152" s="1" t="n">
+        <f aca="false">K152-M152</f>
+        <v>0</v>
+      </c>
+      <c r="O152" s="0" t="str">
+        <f aca="false">IF(L152&lt;K152,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1" t="n">
+        <f aca="false">D153-E153</f>
+        <v>0</v>
+      </c>
+      <c r="L153" s="1" t="n">
+        <f aca="false">C153-E153</f>
+        <v>0</v>
+      </c>
+      <c r="M153" s="1" t="n">
+        <f aca="false">F153-E153</f>
+        <v>0</v>
+      </c>
+      <c r="N153" s="1" t="n">
+        <f aca="false">K153-M153</f>
+        <v>0</v>
+      </c>
+      <c r="O153" s="0" t="str">
+        <f aca="false">IF(L153&lt;K153,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1" t="n">
+        <f aca="false">D154-E154</f>
+        <v>0</v>
+      </c>
+      <c r="L154" s="1" t="n">
+        <f aca="false">C154-E154</f>
+        <v>0</v>
+      </c>
+      <c r="M154" s="1" t="n">
+        <f aca="false">F154-E154</f>
+        <v>0</v>
+      </c>
+      <c r="N154" s="1" t="n">
+        <f aca="false">K154-M154</f>
+        <v>0</v>
+      </c>
+      <c r="O154" s="0" t="str">
+        <f aca="false">IF(L154&lt;K154,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1" t="n">
+        <f aca="false">D155-E155</f>
+        <v>0</v>
+      </c>
+      <c r="L155" s="1" t="n">
+        <f aca="false">C155-E155</f>
+        <v>0</v>
+      </c>
+      <c r="M155" s="1" t="n">
+        <f aca="false">F155-E155</f>
+        <v>0</v>
+      </c>
+      <c r="N155" s="1" t="n">
+        <f aca="false">K155-M155</f>
+        <v>0</v>
+      </c>
+      <c r="O155" s="0" t="str">
+        <f aca="false">IF(L155&lt;K155,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1" t="n">
+        <f aca="false">D156-E156</f>
+        <v>0</v>
+      </c>
+      <c r="L156" s="1" t="n">
+        <f aca="false">C156-E156</f>
+        <v>0</v>
+      </c>
+      <c r="M156" s="1" t="n">
+        <f aca="false">F156-E156</f>
+        <v>0</v>
+      </c>
+      <c r="N156" s="1" t="n">
+        <f aca="false">K156-M156</f>
+        <v>0</v>
+      </c>
+      <c r="O156" s="0" t="str">
+        <f aca="false">IF(L156&lt;K156,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1" t="n">
+        <f aca="false">D157-E157</f>
+        <v>0</v>
+      </c>
+      <c r="L157" s="1" t="n">
+        <f aca="false">C157-E157</f>
+        <v>0</v>
+      </c>
+      <c r="M157" s="1" t="n">
+        <f aca="false">F157-E157</f>
+        <v>0</v>
+      </c>
+      <c r="N157" s="1" t="n">
+        <f aca="false">K157-M157</f>
+        <v>0</v>
+      </c>
+      <c r="O157" s="0" t="str">
+        <f aca="false">IF(L157&lt;K157,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1" t="n">
+        <f aca="false">D158-E158</f>
+        <v>0</v>
+      </c>
+      <c r="L158" s="1" t="n">
+        <f aca="false">C158-E158</f>
+        <v>0</v>
+      </c>
+      <c r="M158" s="1" t="n">
+        <f aca="false">F158-E158</f>
+        <v>0</v>
+      </c>
+      <c r="N158" s="1" t="n">
+        <f aca="false">K158-M158</f>
+        <v>0</v>
+      </c>
+      <c r="O158" s="0" t="str">
+        <f aca="false">IF(L158&lt;K158,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1" t="n">
+        <f aca="false">D159-E159</f>
+        <v>0</v>
+      </c>
+      <c r="L159" s="1" t="n">
+        <f aca="false">C159-E159</f>
+        <v>0</v>
+      </c>
+      <c r="M159" s="1" t="n">
+        <f aca="false">F159-E159</f>
+        <v>0</v>
+      </c>
+      <c r="N159" s="1" t="n">
+        <f aca="false">K159-M159</f>
+        <v>0</v>
+      </c>
+      <c r="O159" s="0" t="str">
+        <f aca="false">IF(L159&lt;K159,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1" t="n">
+        <f aca="false">D160-E160</f>
+        <v>0</v>
+      </c>
+      <c r="L160" s="1" t="n">
+        <f aca="false">C160-E160</f>
+        <v>0</v>
+      </c>
+      <c r="M160" s="1" t="n">
+        <f aca="false">F160-E160</f>
+        <v>0</v>
+      </c>
+      <c r="N160" s="1" t="n">
+        <f aca="false">K160-M160</f>
+        <v>0</v>
+      </c>
+      <c r="O160" s="0" t="str">
+        <f aca="false">IF(L160&lt;K160,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1" t="n">
+        <f aca="false">D161-E161</f>
+        <v>0</v>
+      </c>
+      <c r="L161" s="1" t="n">
+        <f aca="false">C161-E161</f>
+        <v>0</v>
+      </c>
+      <c r="M161" s="1" t="n">
+        <f aca="false">F161-E161</f>
+        <v>0</v>
+      </c>
+      <c r="N161" s="1" t="n">
+        <f aca="false">K161-M161</f>
+        <v>0</v>
+      </c>
+      <c r="O161" s="0" t="str">
+        <f aca="false">IF(L161&lt;K161,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1" t="n">
+        <f aca="false">D162-E162</f>
+        <v>0</v>
+      </c>
+      <c r="L162" s="1" t="n">
+        <f aca="false">C162-E162</f>
+        <v>0</v>
+      </c>
+      <c r="M162" s="1" t="n">
+        <f aca="false">F162-E162</f>
+        <v>0</v>
+      </c>
+      <c r="N162" s="1" t="n">
+        <f aca="false">K162-M162</f>
+        <v>0</v>
+      </c>
+      <c r="O162" s="0" t="str">
+        <f aca="false">IF(L162&lt;K162,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1" t="n">
+        <f aca="false">D163-E163</f>
+        <v>0</v>
+      </c>
+      <c r="L163" s="1" t="n">
+        <f aca="false">C163-E163</f>
+        <v>0</v>
+      </c>
+      <c r="M163" s="1" t="n">
+        <f aca="false">F163-E163</f>
+        <v>0</v>
+      </c>
+      <c r="N163" s="1" t="n">
+        <f aca="false">K163-M163</f>
+        <v>0</v>
+      </c>
+      <c r="O163" s="0" t="str">
+        <f aca="false">IF(L163&lt;K163,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1" t="n">
+        <f aca="false">D164-E164</f>
+        <v>0</v>
+      </c>
+      <c r="L164" s="1" t="n">
+        <f aca="false">C164-E164</f>
+        <v>0</v>
+      </c>
+      <c r="M164" s="1" t="n">
+        <f aca="false">F164-E164</f>
+        <v>0</v>
+      </c>
+      <c r="N164" s="1" t="n">
+        <f aca="false">K164-M164</f>
+        <v>0</v>
+      </c>
+      <c r="O164" s="0" t="str">
+        <f aca="false">IF(L164&lt;K164,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1" t="n">
+        <f aca="false">D165-E165</f>
+        <v>0</v>
+      </c>
+      <c r="L165" s="1" t="n">
+        <f aca="false">C165-E165</f>
+        <v>0</v>
+      </c>
+      <c r="M165" s="1" t="n">
+        <f aca="false">F165-E165</f>
+        <v>0</v>
+      </c>
+      <c r="N165" s="1" t="n">
+        <f aca="false">K165-M165</f>
+        <v>0</v>
+      </c>
+      <c r="O165" s="0" t="str">
+        <f aca="false">IF(L165&lt;K165,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1" t="n">
+        <f aca="false">D166-E166</f>
+        <v>0</v>
+      </c>
+      <c r="L166" s="1" t="n">
+        <f aca="false">C166-E166</f>
+        <v>0</v>
+      </c>
+      <c r="M166" s="1" t="n">
+        <f aca="false">F166-E166</f>
+        <v>0</v>
+      </c>
+      <c r="N166" s="1" t="n">
+        <f aca="false">K166-M166</f>
+        <v>0</v>
+      </c>
+      <c r="O166" s="0" t="str">
+        <f aca="false">IF(L166&lt;K166,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1" t="n">
+        <f aca="false">D167-E167</f>
+        <v>0</v>
+      </c>
+      <c r="L167" s="1" t="n">
+        <f aca="false">C167-E167</f>
+        <v>0</v>
+      </c>
+      <c r="M167" s="1" t="n">
+        <f aca="false">F167-E167</f>
+        <v>0</v>
+      </c>
+      <c r="N167" s="1" t="n">
+        <f aca="false">K167-M167</f>
+        <v>0</v>
+      </c>
+      <c r="O167" s="0" t="str">
+        <f aca="false">IF(L167&lt;K167,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1" t="n">
+        <f aca="false">D168-E168</f>
+        <v>0</v>
+      </c>
+      <c r="L168" s="1" t="n">
+        <f aca="false">C168-E168</f>
+        <v>0</v>
+      </c>
+      <c r="M168" s="1" t="n">
+        <f aca="false">F168-E168</f>
+        <v>0</v>
+      </c>
+      <c r="N168" s="1" t="n">
+        <f aca="false">K168-M168</f>
+        <v>0</v>
+      </c>
+      <c r="O168" s="0" t="str">
+        <f aca="false">IF(L168&lt;K168,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1" t="n">
+        <f aca="false">D169-E169</f>
+        <v>0</v>
+      </c>
+      <c r="L169" s="1" t="n">
+        <f aca="false">C169-E169</f>
+        <v>0</v>
+      </c>
+      <c r="M169" s="1" t="n">
+        <f aca="false">F169-E169</f>
+        <v>0</v>
+      </c>
+      <c r="N169" s="1" t="n">
+        <f aca="false">K169-M169</f>
+        <v>0</v>
+      </c>
+      <c r="O169" s="0" t="str">
+        <f aca="false">IF(L169&lt;K169,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1" t="n">
+        <f aca="false">D170-E170</f>
+        <v>0</v>
+      </c>
+      <c r="L170" s="1" t="n">
+        <f aca="false">C170-E170</f>
+        <v>0</v>
+      </c>
+      <c r="M170" s="1" t="n">
+        <f aca="false">F170-E170</f>
+        <v>0</v>
+      </c>
+      <c r="N170" s="1" t="n">
+        <f aca="false">K170-M170</f>
+        <v>0</v>
+      </c>
+      <c r="O170" s="0" t="str">
+        <f aca="false">IF(L170&lt;K170,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1" t="n">
+        <f aca="false">D171-E171</f>
+        <v>0</v>
+      </c>
+      <c r="L171" s="1" t="n">
+        <f aca="false">C171-E171</f>
+        <v>0</v>
+      </c>
+      <c r="M171" s="1" t="n">
+        <f aca="false">F171-E171</f>
+        <v>0</v>
+      </c>
+      <c r="N171" s="1" t="n">
+        <f aca="false">K171-M171</f>
+        <v>0</v>
+      </c>
+      <c r="O171" s="0" t="str">
+        <f aca="false">IF(L171&lt;K171,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
+      <c r="K172" s="1" t="n">
+        <f aca="false">D172-E172</f>
+        <v>0</v>
+      </c>
+      <c r="L172" s="1" t="n">
+        <f aca="false">C172-E172</f>
+        <v>0</v>
+      </c>
+      <c r="M172" s="1" t="n">
+        <f aca="false">F172-E172</f>
+        <v>0</v>
+      </c>
+      <c r="N172" s="1" t="n">
+        <f aca="false">K172-M172</f>
+        <v>0</v>
+      </c>
+      <c r="O172" s="0" t="str">
+        <f aca="false">IF(L172&lt;K172,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1" t="n">
+        <f aca="false">D173-E173</f>
+        <v>0</v>
+      </c>
+      <c r="L173" s="1" t="n">
+        <f aca="false">C173-E173</f>
+        <v>0</v>
+      </c>
+      <c r="M173" s="1" t="n">
+        <f aca="false">F173-E173</f>
+        <v>0</v>
+      </c>
+      <c r="N173" s="1" t="n">
+        <f aca="false">K173-M173</f>
+        <v>0</v>
+      </c>
+      <c r="O173" s="0" t="str">
+        <f aca="false">IF(L173&lt;K173,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1" t="n">
+        <f aca="false">D174-E174</f>
+        <v>0</v>
+      </c>
+      <c r="L174" s="1" t="n">
+        <f aca="false">C174-E174</f>
+        <v>0</v>
+      </c>
+      <c r="M174" s="1" t="n">
+        <f aca="false">F174-E174</f>
+        <v>0</v>
+      </c>
+      <c r="N174" s="1" t="n">
+        <f aca="false">K174-M174</f>
+        <v>0</v>
+      </c>
+      <c r="O174" s="0" t="str">
+        <f aca="false">IF(L174&lt;K174,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1" t="n">
+        <f aca="false">D175-E175</f>
+        <v>0</v>
+      </c>
+      <c r="L175" s="1" t="n">
+        <f aca="false">C175-E175</f>
+        <v>0</v>
+      </c>
+      <c r="M175" s="1" t="n">
+        <f aca="false">F175-E175</f>
+        <v>0</v>
+      </c>
+      <c r="N175" s="1" t="n">
+        <f aca="false">K175-M175</f>
+        <v>0</v>
+      </c>
+      <c r="O175" s="0" t="str">
+        <f aca="false">IF(L175&lt;K175,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1" t="n">
+        <f aca="false">D176-E176</f>
+        <v>0</v>
+      </c>
+      <c r="L176" s="1" t="n">
+        <f aca="false">C176-E176</f>
+        <v>0</v>
+      </c>
+      <c r="M176" s="1" t="n">
+        <f aca="false">F176-E176</f>
+        <v>0</v>
+      </c>
+      <c r="N176" s="1" t="n">
+        <f aca="false">K176-M176</f>
+        <v>0</v>
+      </c>
+      <c r="O176" s="0" t="str">
+        <f aca="false">IF(L176&lt;K176,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1" t="n">
+        <f aca="false">D177-E177</f>
+        <v>0</v>
+      </c>
+      <c r="L177" s="1" t="n">
+        <f aca="false">C177-E177</f>
+        <v>0</v>
+      </c>
+      <c r="M177" s="1" t="n">
+        <f aca="false">F177-E177</f>
+        <v>0</v>
+      </c>
+      <c r="N177" s="1" t="n">
+        <f aca="false">K177-M177</f>
+        <v>0</v>
+      </c>
+      <c r="O177" s="0" t="str">
+        <f aca="false">IF(L177&lt;K177,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1" t="n">
+        <f aca="false">D178-E178</f>
+        <v>0</v>
+      </c>
+      <c r="L178" s="1" t="n">
+        <f aca="false">C178-E178</f>
+        <v>0</v>
+      </c>
+      <c r="M178" s="1" t="n">
+        <f aca="false">F178-E178</f>
+        <v>0</v>
+      </c>
+      <c r="N178" s="1" t="n">
+        <f aca="false">K178-M178</f>
+        <v>0</v>
+      </c>
+      <c r="O178" s="0" t="str">
+        <f aca="false">IF(L178&lt;K178,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+      <c r="K179" s="1" t="n">
+        <f aca="false">D179-E179</f>
+        <v>0</v>
+      </c>
+      <c r="L179" s="1" t="n">
+        <f aca="false">C179-E179</f>
+        <v>0</v>
+      </c>
+      <c r="M179" s="1" t="n">
+        <f aca="false">F179-E179</f>
+        <v>0</v>
+      </c>
+      <c r="N179" s="1" t="n">
+        <f aca="false">K179-M179</f>
+        <v>0</v>
+      </c>
+      <c r="O179" s="0" t="str">
+        <f aca="false">IF(L179&lt;K179,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1" t="n">
+        <f aca="false">D180-E180</f>
+        <v>0</v>
+      </c>
+      <c r="L180" s="1" t="n">
+        <f aca="false">C180-E180</f>
+        <v>0</v>
+      </c>
+      <c r="M180" s="1" t="n">
+        <f aca="false">F180-E180</f>
+        <v>0</v>
+      </c>
+      <c r="N180" s="1" t="n">
+        <f aca="false">K180-M180</f>
+        <v>0</v>
+      </c>
+      <c r="O180" s="0" t="str">
+        <f aca="false">IF(L180&lt;K180,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1" t="n">
+        <f aca="false">D181-E181</f>
+        <v>0</v>
+      </c>
+      <c r="L181" s="1" t="n">
+        <f aca="false">C181-E181</f>
+        <v>0</v>
+      </c>
+      <c r="M181" s="1" t="n">
+        <f aca="false">F181-E181</f>
+        <v>0</v>
+      </c>
+      <c r="N181" s="1" t="n">
+        <f aca="false">K181-M181</f>
+        <v>0</v>
+      </c>
+      <c r="O181" s="0" t="str">
+        <f aca="false">IF(L181&lt;K181,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1" t="n">
+        <f aca="false">D182-E182</f>
+        <v>0</v>
+      </c>
+      <c r="L182" s="1" t="n">
+        <f aca="false">C182-E182</f>
+        <v>0</v>
+      </c>
+      <c r="M182" s="1" t="n">
+        <f aca="false">F182-E182</f>
+        <v>0</v>
+      </c>
+      <c r="N182" s="1" t="n">
+        <f aca="false">K182-M182</f>
+        <v>0</v>
+      </c>
+      <c r="O182" s="0" t="str">
+        <f aca="false">IF(L182&lt;K182,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1" t="n">
+        <f aca="false">D183-E183</f>
+        <v>0</v>
+      </c>
+      <c r="L183" s="1" t="n">
+        <f aca="false">C183-E183</f>
+        <v>0</v>
+      </c>
+      <c r="M183" s="1" t="n">
+        <f aca="false">F183-E183</f>
+        <v>0</v>
+      </c>
+      <c r="N183" s="1" t="n">
+        <f aca="false">K183-M183</f>
+        <v>0</v>
+      </c>
+      <c r="O183" s="0" t="str">
+        <f aca="false">IF(L183&lt;K183,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1" t="n">
+        <f aca="false">D184-E184</f>
+        <v>0</v>
+      </c>
+      <c r="L184" s="1" t="n">
+        <f aca="false">C184-E184</f>
+        <v>0</v>
+      </c>
+      <c r="M184" s="1" t="n">
+        <f aca="false">F184-E184</f>
+        <v>0</v>
+      </c>
+      <c r="N184" s="1" t="n">
+        <f aca="false">K184-M184</f>
+        <v>0</v>
+      </c>
+      <c r="O184" s="0" t="str">
+        <f aca="false">IF(L184&lt;K184,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
+      <c r="K185" s="1" t="n">
+        <f aca="false">D185-E185</f>
+        <v>0</v>
+      </c>
+      <c r="L185" s="1" t="n">
+        <f aca="false">C185-E185</f>
+        <v>0</v>
+      </c>
+      <c r="M185" s="1" t="n">
+        <f aca="false">F185-E185</f>
+        <v>0</v>
+      </c>
+      <c r="N185" s="1" t="n">
+        <f aca="false">K185-M185</f>
+        <v>0</v>
+      </c>
+      <c r="O185" s="0" t="str">
+        <f aca="false">IF(L185&lt;K185,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
+      <c r="K186" s="1" t="n">
+        <f aca="false">D186-E186</f>
+        <v>0</v>
+      </c>
+      <c r="L186" s="1" t="n">
+        <f aca="false">C186-E186</f>
+        <v>0</v>
+      </c>
+      <c r="M186" s="1" t="n">
+        <f aca="false">F186-E186</f>
+        <v>0</v>
+      </c>
+      <c r="N186" s="1" t="n">
+        <f aca="false">K186-M186</f>
+        <v>0</v>
+      </c>
+      <c r="O186" s="0" t="str">
+        <f aca="false">IF(L186&lt;K186,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
+      <c r="K187" s="1" t="n">
+        <f aca="false">D187-E187</f>
+        <v>0</v>
+      </c>
+      <c r="L187" s="1" t="n">
+        <f aca="false">C187-E187</f>
+        <v>0</v>
+      </c>
+      <c r="M187" s="1" t="n">
+        <f aca="false">F187-E187</f>
+        <v>0</v>
+      </c>
+      <c r="N187" s="1" t="n">
+        <f aca="false">K187-M187</f>
+        <v>0</v>
+      </c>
+      <c r="O187" s="0" t="str">
+        <f aca="false">IF(L187&lt;K187,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+      <c r="J188" s="1"/>
+      <c r="K188" s="1" t="n">
+        <f aca="false">D188-E188</f>
+        <v>0</v>
+      </c>
+      <c r="L188" s="1" t="n">
+        <f aca="false">C188-E188</f>
+        <v>0</v>
+      </c>
+      <c r="M188" s="1" t="n">
+        <f aca="false">F188-E188</f>
+        <v>0</v>
+      </c>
+      <c r="N188" s="1" t="n">
+        <f aca="false">K188-M188</f>
+        <v>0</v>
+      </c>
+      <c r="O188" s="0" t="str">
+        <f aca="false">IF(L188&lt;K188,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
+      <c r="K189" s="1" t="n">
+        <f aca="false">D189-E189</f>
+        <v>0</v>
+      </c>
+      <c r="L189" s="1" t="n">
+        <f aca="false">C189-E189</f>
+        <v>0</v>
+      </c>
+      <c r="M189" s="1" t="n">
+        <f aca="false">F189-E189</f>
+        <v>0</v>
+      </c>
+      <c r="N189" s="1" t="n">
+        <f aca="false">K189-M189</f>
+        <v>0</v>
+      </c>
+      <c r="O189" s="0" t="str">
+        <f aca="false">IF(L189&lt;K189,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+      <c r="J190" s="1"/>
+      <c r="K190" s="1" t="n">
+        <f aca="false">D190-E190</f>
+        <v>0</v>
+      </c>
+      <c r="L190" s="1" t="n">
+        <f aca="false">C190-E190</f>
+        <v>0</v>
+      </c>
+      <c r="M190" s="1" t="n">
+        <f aca="false">F190-E190</f>
+        <v>0</v>
+      </c>
+      <c r="N190" s="1" t="n">
+        <f aca="false">K190-M190</f>
+        <v>0</v>
+      </c>
+      <c r="O190" s="0" t="str">
+        <f aca="false">IF(L190&lt;K190,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
+      <c r="K191" s="1" t="n">
+        <f aca="false">D191-E191</f>
+        <v>0</v>
+      </c>
+      <c r="L191" s="1" t="n">
+        <f aca="false">C191-E191</f>
+        <v>0</v>
+      </c>
+      <c r="M191" s="1" t="n">
+        <f aca="false">F191-E191</f>
+        <v>0</v>
+      </c>
+      <c r="N191" s="1" t="n">
+        <f aca="false">K191-M191</f>
+        <v>0</v>
+      </c>
+      <c r="O191" s="0" t="str">
+        <f aca="false">IF(L191&lt;K191,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="1"/>
+      <c r="K192" s="1" t="n">
+        <f aca="false">D192-E192</f>
+        <v>0</v>
+      </c>
+      <c r="L192" s="1" t="n">
+        <f aca="false">C192-E192</f>
+        <v>0</v>
+      </c>
+      <c r="M192" s="1" t="n">
+        <f aca="false">F192-E192</f>
+        <v>0</v>
+      </c>
+      <c r="N192" s="1" t="n">
+        <f aca="false">K192-M192</f>
+        <v>0</v>
+      </c>
+      <c r="O192" s="0" t="str">
+        <f aca="false">IF(L192&lt;K192,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
+      <c r="K193" s="1" t="n">
+        <f aca="false">D193-E193</f>
+        <v>0</v>
+      </c>
+      <c r="L193" s="1" t="n">
+        <f aca="false">C193-E193</f>
+        <v>0</v>
+      </c>
+      <c r="M193" s="1" t="n">
+        <f aca="false">F193-E193</f>
+        <v>0</v>
+      </c>
+      <c r="N193" s="1" t="n">
+        <f aca="false">K193-M193</f>
+        <v>0</v>
+      </c>
+      <c r="O193" s="0" t="str">
+        <f aca="false">IF(L193&lt;K193,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1" t="n">
+        <f aca="false">D194-E194</f>
+        <v>0</v>
+      </c>
+      <c r="L194" s="1" t="n">
+        <f aca="false">C194-E194</f>
+        <v>0</v>
+      </c>
+      <c r="M194" s="1" t="n">
+        <f aca="false">F194-E194</f>
+        <v>0</v>
+      </c>
+      <c r="N194" s="1" t="n">
+        <f aca="false">K194-M194</f>
+        <v>0</v>
+      </c>
+      <c r="O194" s="0" t="str">
+        <f aca="false">IF(L194&lt;K194,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1" t="n">
+        <f aca="false">D195-E195</f>
+        <v>0</v>
+      </c>
+      <c r="L195" s="1" t="n">
+        <f aca="false">C195-E195</f>
+        <v>0</v>
+      </c>
+      <c r="M195" s="1" t="n">
+        <f aca="false">F195-E195</f>
+        <v>0</v>
+      </c>
+      <c r="N195" s="1" t="n">
+        <f aca="false">K195-M195</f>
+        <v>0</v>
+      </c>
+      <c r="O195" s="0" t="str">
+        <f aca="false">IF(L195&lt;K195,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1" t="n">
+        <f aca="false">D196-E196</f>
+        <v>0</v>
+      </c>
+      <c r="L196" s="1" t="n">
+        <f aca="false">C196-E196</f>
+        <v>0</v>
+      </c>
+      <c r="M196" s="1" t="n">
+        <f aca="false">F196-E196</f>
+        <v>0</v>
+      </c>
+      <c r="N196" s="1" t="n">
+        <f aca="false">K196-M196</f>
+        <v>0</v>
+      </c>
+      <c r="O196" s="0" t="str">
+        <f aca="false">IF(L196&lt;K196,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
+      <c r="K197" s="1" t="n">
+        <f aca="false">D197-E197</f>
+        <v>0</v>
+      </c>
+      <c r="L197" s="1" t="n">
+        <f aca="false">C197-E197</f>
+        <v>0</v>
+      </c>
+      <c r="M197" s="1" t="n">
+        <f aca="false">F197-E197</f>
+        <v>0</v>
+      </c>
+      <c r="N197" s="1" t="n">
+        <f aca="false">K197-M197</f>
+        <v>0</v>
+      </c>
+      <c r="O197" s="0" t="str">
+        <f aca="false">IF(L197&lt;K197,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
+      <c r="K198" s="1" t="n">
+        <f aca="false">D198-E198</f>
+        <v>0</v>
+      </c>
+      <c r="L198" s="1" t="n">
+        <f aca="false">C198-E198</f>
+        <v>0</v>
+      </c>
+      <c r="M198" s="1" t="n">
+        <f aca="false">F198-E198</f>
+        <v>0</v>
+      </c>
+      <c r="N198" s="1" t="n">
+        <f aca="false">K198-M198</f>
+        <v>0</v>
+      </c>
+      <c r="O198" s="0" t="str">
+        <f aca="false">IF(L198&lt;K198,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+      <c r="K199" s="1" t="n">
+        <f aca="false">D199-E199</f>
+        <v>0</v>
+      </c>
+      <c r="L199" s="1" t="n">
+        <f aca="false">C199-E199</f>
+        <v>0</v>
+      </c>
+      <c r="M199" s="1" t="n">
+        <f aca="false">F199-E199</f>
+        <v>0</v>
+      </c>
+      <c r="N199" s="1" t="n">
+        <f aca="false">K199-M199</f>
+        <v>0</v>
+      </c>
+      <c r="O199" s="0" t="str">
+        <f aca="false">IF(L199&lt;K199,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
+      <c r="K200" s="1" t="n">
+        <f aca="false">D200-E200</f>
+        <v>0</v>
+      </c>
+      <c r="L200" s="1" t="n">
+        <f aca="false">C200-E200</f>
+        <v>0</v>
+      </c>
+      <c r="M200" s="1" t="n">
+        <f aca="false">F200-E200</f>
+        <v>0</v>
+      </c>
+      <c r="N200" s="1" t="n">
+        <f aca="false">K200-M200</f>
+        <v>0</v>
+      </c>
+      <c r="O200" s="0" t="str">
+        <f aca="false">IF(L200&lt;K200,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1" t="n">
+        <f aca="false">D201-E201</f>
+        <v>0</v>
+      </c>
+      <c r="L201" s="1" t="n">
+        <f aca="false">C201-E201</f>
+        <v>0</v>
+      </c>
+      <c r="M201" s="1" t="n">
+        <f aca="false">F201-E201</f>
+        <v>0</v>
+      </c>
+      <c r="N201" s="1" t="n">
+        <f aca="false">K201-M201</f>
+        <v>0</v>
+      </c>
+      <c r="O201" s="0" t="str">
+        <f aca="false">IF(L201&lt;K201,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1" t="n">
+        <f aca="false">D202-E202</f>
+        <v>0</v>
+      </c>
+      <c r="L202" s="1" t="n">
+        <f aca="false">C202-E202</f>
+        <v>0</v>
+      </c>
+      <c r="M202" s="1" t="n">
+        <f aca="false">F202-E202</f>
+        <v>0</v>
+      </c>
+      <c r="N202" s="1" t="n">
+        <f aca="false">K202-M202</f>
+        <v>0</v>
+      </c>
+      <c r="O202" s="0" t="str">
+        <f aca="false">IF(L202&lt;K202,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1" t="n">
+        <f aca="false">D203-E203</f>
+        <v>0</v>
+      </c>
+      <c r="L203" s="1" t="n">
+        <f aca="false">C203-E203</f>
+        <v>0</v>
+      </c>
+      <c r="M203" s="1" t="n">
+        <f aca="false">F203-E203</f>
+        <v>0</v>
+      </c>
+      <c r="N203" s="1" t="n">
+        <f aca="false">K203-M203</f>
+        <v>0</v>
+      </c>
+      <c r="O203" s="0" t="str">
+        <f aca="false">IF(L203&lt;K203,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1" t="n">
+        <f aca="false">D204-E204</f>
+        <v>0</v>
+      </c>
+      <c r="L204" s="1" t="n">
+        <f aca="false">C204-E204</f>
+        <v>0</v>
+      </c>
+      <c r="M204" s="1" t="n">
+        <f aca="false">F204-E204</f>
+        <v>0</v>
+      </c>
+      <c r="N204" s="1" t="n">
+        <f aca="false">K204-M204</f>
+        <v>0</v>
+      </c>
+      <c r="O204" s="0" t="str">
+        <f aca="false">IF(L204&lt;K204,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+      <c r="J205" s="1"/>
+      <c r="K205" s="1" t="n">
+        <f aca="false">D205-E205</f>
+        <v>0</v>
+      </c>
+      <c r="L205" s="1" t="n">
+        <f aca="false">C205-E205</f>
+        <v>0</v>
+      </c>
+      <c r="M205" s="1" t="n">
+        <f aca="false">F205-E205</f>
+        <v>0</v>
+      </c>
+      <c r="N205" s="1" t="n">
+        <f aca="false">K205-M205</f>
+        <v>0</v>
+      </c>
+      <c r="O205" s="0" t="str">
+        <f aca="false">IF(L205&lt;K205,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
+      <c r="J206" s="1"/>
+      <c r="K206" s="1" t="n">
+        <f aca="false">D206-E206</f>
+        <v>0</v>
+      </c>
+      <c r="L206" s="1" t="n">
+        <f aca="false">C206-E206</f>
+        <v>0</v>
+      </c>
+      <c r="M206" s="1" t="n">
+        <f aca="false">F206-E206</f>
+        <v>0</v>
+      </c>
+      <c r="N206" s="1" t="n">
+        <f aca="false">K206-M206</f>
+        <v>0</v>
+      </c>
+      <c r="O206" s="0" t="str">
+        <f aca="false">IF(L206&lt;K206,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1"/>
+      <c r="K207" s="1" t="n">
+        <f aca="false">D207-E207</f>
+        <v>0</v>
+      </c>
+      <c r="L207" s="1" t="n">
+        <f aca="false">C207-E207</f>
+        <v>0</v>
+      </c>
+      <c r="M207" s="1" t="n">
+        <f aca="false">F207-E207</f>
+        <v>0</v>
+      </c>
+      <c r="N207" s="1" t="n">
+        <f aca="false">K207-M207</f>
+        <v>0</v>
+      </c>
+      <c r="O207" s="0" t="str">
+        <f aca="false">IF(L207&lt;K207,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="1"/>
+      <c r="K208" s="1" t="n">
+        <f aca="false">D208-E208</f>
+        <v>0</v>
+      </c>
+      <c r="L208" s="1" t="n">
+        <f aca="false">C208-E208</f>
+        <v>0</v>
+      </c>
+      <c r="M208" s="1" t="n">
+        <f aca="false">F208-E208</f>
+        <v>0</v>
+      </c>
+      <c r="N208" s="1" t="n">
+        <f aca="false">K208-M208</f>
+        <v>0</v>
+      </c>
+      <c r="O208" s="0" t="str">
+        <f aca="false">IF(L208&lt;K208,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+      <c r="K209" s="1" t="n">
+        <f aca="false">D209-E209</f>
+        <v>0</v>
+      </c>
+      <c r="L209" s="1" t="n">
+        <f aca="false">C209-E209</f>
+        <v>0</v>
+      </c>
+      <c r="M209" s="1" t="n">
+        <f aca="false">F209-E209</f>
+        <v>0</v>
+      </c>
+      <c r="N209" s="1" t="n">
+        <f aca="false">K209-M209</f>
+        <v>0</v>
+      </c>
+      <c r="O209" s="0" t="str">
+        <f aca="false">IF(L209&lt;K209,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1" t="n">
+        <f aca="false">D210-E210</f>
+        <v>0</v>
+      </c>
+      <c r="L210" s="1" t="n">
+        <f aca="false">C210-E210</f>
+        <v>0</v>
+      </c>
+      <c r="M210" s="1" t="n">
+        <f aca="false">F210-E210</f>
+        <v>0</v>
+      </c>
+      <c r="N210" s="1" t="n">
+        <f aca="false">K210-M210</f>
+        <v>0</v>
+      </c>
+      <c r="O210" s="0" t="str">
+        <f aca="false">IF(L210&lt;K210,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1" t="n">
+        <f aca="false">D211-E211</f>
+        <v>0</v>
+      </c>
+      <c r="L211" s="1" t="n">
+        <f aca="false">C211-E211</f>
+        <v>0</v>
+      </c>
+      <c r="M211" s="1" t="n">
+        <f aca="false">F211-E211</f>
+        <v>0</v>
+      </c>
+      <c r="N211" s="1" t="n">
+        <f aca="false">K211-M211</f>
+        <v>0</v>
+      </c>
+      <c r="O211" s="0" t="str">
+        <f aca="false">IF(L211&lt;K211,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1" t="n">
+        <f aca="false">D212-E212</f>
+        <v>0</v>
+      </c>
+      <c r="L212" s="1" t="n">
+        <f aca="false">C212-E212</f>
+        <v>0</v>
+      </c>
+      <c r="M212" s="1" t="n">
+        <f aca="false">F212-E212</f>
+        <v>0</v>
+      </c>
+      <c r="N212" s="1" t="n">
+        <f aca="false">K212-M212</f>
+        <v>0</v>
+      </c>
+      <c r="O212" s="0" t="str">
+        <f aca="false">IF(L212&lt;K212,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1" t="n">
+        <f aca="false">D213-E213</f>
+        <v>0</v>
+      </c>
+      <c r="L213" s="1" t="n">
+        <f aca="false">C213-E213</f>
+        <v>0</v>
+      </c>
+      <c r="M213" s="1" t="n">
+        <f aca="false">F213-E213</f>
+        <v>0</v>
+      </c>
+      <c r="N213" s="1" t="n">
+        <f aca="false">K213-M213</f>
+        <v>0</v>
+      </c>
+      <c r="O213" s="0" t="str">
+        <f aca="false">IF(L213&lt;K213,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1" t="n">
+        <f aca="false">D214-E214</f>
+        <v>0</v>
+      </c>
+      <c r="L214" s="1" t="n">
+        <f aca="false">C214-E214</f>
+        <v>0</v>
+      </c>
+      <c r="M214" s="1" t="n">
+        <f aca="false">F214-E214</f>
+        <v>0</v>
+      </c>
+      <c r="N214" s="1" t="n">
+        <f aca="false">K214-M214</f>
+        <v>0</v>
+      </c>
+      <c r="O214" s="0" t="str">
+        <f aca="false">IF(L214&lt;K214,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1" t="n">
+        <f aca="false">D215-E215</f>
+        <v>0</v>
+      </c>
+      <c r="L215" s="1" t="n">
+        <f aca="false">C215-E215</f>
+        <v>0</v>
+      </c>
+      <c r="M215" s="1" t="n">
+        <f aca="false">F215-E215</f>
+        <v>0</v>
+      </c>
+      <c r="N215" s="1" t="n">
+        <f aca="false">K215-M215</f>
+        <v>0</v>
+      </c>
+      <c r="O215" s="0" t="str">
+        <f aca="false">IF(L215&lt;K215,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1" t="n">
+        <f aca="false">D216-E216</f>
+        <v>0</v>
+      </c>
+      <c r="L216" s="1" t="n">
+        <f aca="false">C216-E216</f>
+        <v>0</v>
+      </c>
+      <c r="M216" s="1" t="n">
+        <f aca="false">F216-E216</f>
+        <v>0</v>
+      </c>
+      <c r="N216" s="1" t="n">
+        <f aca="false">K216-M216</f>
+        <v>0</v>
+      </c>
+      <c r="O216" s="0" t="str">
+        <f aca="false">IF(L216&lt;K216,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1" t="n">
+        <f aca="false">D217-E217</f>
+        <v>0</v>
+      </c>
+      <c r="L217" s="1" t="n">
+        <f aca="false">C217-E217</f>
+        <v>0</v>
+      </c>
+      <c r="M217" s="1" t="n">
+        <f aca="false">F217-E217</f>
+        <v>0</v>
+      </c>
+      <c r="N217" s="1" t="n">
+        <f aca="false">K217-M217</f>
+        <v>0</v>
+      </c>
+      <c r="O217" s="0" t="str">
+        <f aca="false">IF(L217&lt;K217,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1" t="n">
+        <f aca="false">D218-E218</f>
+        <v>0</v>
+      </c>
+      <c r="L218" s="1" t="n">
+        <f aca="false">C218-E218</f>
+        <v>0</v>
+      </c>
+      <c r="M218" s="1" t="n">
+        <f aca="false">F218-E218</f>
+        <v>0</v>
+      </c>
+      <c r="N218" s="1" t="n">
+        <f aca="false">K218-M218</f>
+        <v>0</v>
+      </c>
+      <c r="O218" s="0" t="str">
+        <f aca="false">IF(L218&lt;K218,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+      <c r="J219" s="1"/>
+      <c r="K219" s="1" t="n">
+        <f aca="false">D219-E219</f>
+        <v>0</v>
+      </c>
+      <c r="L219" s="1" t="n">
+        <f aca="false">C219-E219</f>
+        <v>0</v>
+      </c>
+      <c r="M219" s="1" t="n">
+        <f aca="false">F219-E219</f>
+        <v>0</v>
+      </c>
+      <c r="N219" s="1" t="n">
+        <f aca="false">K219-M219</f>
+        <v>0</v>
+      </c>
+      <c r="O219" s="0" t="str">
+        <f aca="false">IF(L219&lt;K219,1,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>